--- a/Behavioral Expt/17c_datamgt_ihdmpdishspent.xlsx
+++ b/Behavioral Expt/17c_datamgt_ihdmpdishspent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12840"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="410">
   <si>
     <t>uniqueID</t>
   </si>
@@ -1235,6 +1235,27 @@
   </si>
   <si>
     <t xml:space="preserve">                                  (Std. Err. adjusted for 177 clusters in iresid)</t>
+  </si>
+  <si>
+    <t>amtspentperdish32101</t>
+  </si>
+  <si>
+    <t>amtspentperdish32102</t>
+  </si>
+  <si>
+    <t>amtspentperdish32103</t>
+  </si>
+  <si>
+    <t>hdis_32</t>
+  </si>
+  <si>
+    <t>wdis_32</t>
+  </si>
+  <si>
+    <t>wdis_32  =  (amtspentperdish32102-amtspentperdish1103)^2</t>
+  </si>
+  <si>
+    <t>amt spent on chapati</t>
   </si>
 </sst>
 </file>
@@ -1536,15 +1557,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1554,6 +1566,15 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1861,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1876,15 +1897,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2266,7 +2287,7 @@
       <c r="D26" s="1">
         <v>-2.78</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="37">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F26" s="1">
@@ -2402,21 +2423,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:M112"/>
+  <dimension ref="A2:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4351,6 +4376,138 @@
       </c>
       <c r="G112">
         <v>0.55610000000000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>337</v>
+      </c>
+      <c r="B118" t="s">
+        <v>403</v>
+      </c>
+      <c r="C118" t="s">
+        <v>404</v>
+      </c>
+      <c r="D118" t="s">
+        <v>405</v>
+      </c>
+      <c r="E118" t="s">
+        <v>406</v>
+      </c>
+      <c r="F118" t="s">
+        <v>407</v>
+      </c>
+      <c r="H118" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>20.173300000000001</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>19.296199999999999</v>
+      </c>
+      <c r="E119">
+        <v>406.96203000000003</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <f>(C119-D119)^2</f>
+        <v>372.34333443999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>17.542000000000002</v>
+      </c>
+      <c r="C120">
+        <v>11.4023</v>
+      </c>
+      <c r="D120">
+        <v>16.664899999999999</v>
+      </c>
+      <c r="E120">
+        <v>307.72176000000002</v>
+      </c>
+      <c r="F120">
+        <v>130.01245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>26.312999999999999</v>
+      </c>
+      <c r="C121">
+        <v>21.0504</v>
+      </c>
+      <c r="D121">
+        <v>29.821400000000001</v>
+      </c>
+      <c r="E121">
+        <v>62.313656999999999</v>
+      </c>
+      <c r="F121">
+        <v>6.9237396999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122">
+        <v>14.0336</v>
+      </c>
+      <c r="C122">
+        <v>8.7710000000000008</v>
+      </c>
+      <c r="D122">
+        <v>8.7710000000000008</v>
+      </c>
+      <c r="E122">
+        <v>196.94193000000001</v>
+      </c>
+      <c r="F122">
+        <v>76.930441000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>14.0336</v>
+      </c>
+      <c r="C123">
+        <v>12.279400000000001</v>
+      </c>
+      <c r="D123">
+        <v>26.312999999999999</v>
+      </c>
+      <c r="E123">
+        <v>196.94193000000001</v>
+      </c>
+      <c r="F123">
+        <v>150.78366</v>
       </c>
     </row>
   </sheetData>
@@ -8340,8 +8497,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M131"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8408,14 +8565,14 @@
         <v>1</v>
       </c>
       <c r="K2" t="str">
-        <f>CONCATENATE($I2,$J2,"  =  (",F2,"-",$H$2,")^2")</f>
+        <f>CONCATENATE($I2,$J2,"  =  (",F2,"-",$H2,")^2")</f>
         <v>gen double hdis_1  =  (amtspentperdish1101-amtspentperdish1103)^2</v>
       </c>
       <c r="L2" t="s">
         <v>301</v>
       </c>
       <c r="M2" t="str">
-        <f>CONCATENATE(L2,$J2,"  =  (",G2,"-",$H$2,")^2")</f>
+        <f>CONCATENATE(L2,$J2,"  =  (",G2,"-",$H2,")^2")</f>
         <v>gen double wdis_1  =  (amtspentperdish1102-amtspentperdish1103)^2</v>
       </c>
     </row>
@@ -8455,15 +8612,15 @@
         <v>2</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K5" si="5">CONCATENATE($I3,$J3,"  =  (",F3,"-",$H$2,")^2")</f>
-        <v>gen double hdis_2  =  (amtspentperdish2101-amtspentperdish1103)^2</v>
+        <f t="shared" ref="K3:K66" si="5">CONCATENATE($I3,$J3,"  =  (",F3,"-",$H3,")^2")</f>
+        <v>gen double hdis_2  =  (amtspentperdish2101-amtspentperdish2103)^2</v>
       </c>
       <c r="L3" t="s">
         <v>301</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="6">CONCATENATE(L3,$J3,"  =  (",G3,"-",$H$2,")^2")</f>
-        <v>gen double wdis_2  =  (amtspentperdish2102-amtspentperdish1103)^2</v>
+        <f t="shared" ref="M3:M66" si="6">CONCATENATE(L3,$J3,"  =  (",G3,"-",$H3,")^2")</f>
+        <v>gen double wdis_2  =  (amtspentperdish2102-amtspentperdish2103)^2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8503,14 +8660,14 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" si="5"/>
-        <v>gen double hdis_3  =  (amtspentperdish3101-amtspentperdish1103)^2</v>
+        <v>gen double hdis_3  =  (amtspentperdish3101-amtspentperdish3103)^2</v>
       </c>
       <c r="L4" t="s">
         <v>301</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_3  =  (amtspentperdish3102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_3  =  (amtspentperdish3102-amtspentperdish3103)^2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8550,14 +8707,14 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" si="5"/>
-        <v>gen double hdis_4  =  (amtspentperdish4101-amtspentperdish1103)^2</v>
+        <v>gen double hdis_4  =  (amtspentperdish4101-amtspentperdish4103)^2</v>
       </c>
       <c r="L5" t="s">
         <v>301</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_4  =  (amtspentperdish4102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_4  =  (amtspentperdish4102-amtspentperdish4103)^2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -8596,15 +8753,15 @@
         <v>5</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" ref="K6:K10" si="7">CONCATENATE($I6,$J6,"  =  (",F6,"-",$H$2,")^2")</f>
-        <v>gen double hdis_5  =  (amtspentperdish5101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_5  =  (amtspentperdish5101-amtspentperdish5103)^2</v>
       </c>
       <c r="L6" t="s">
         <v>301</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_5  =  (amtspentperdish5102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_5  =  (amtspentperdish5102-amtspentperdish5103)^2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8643,15 +8800,15 @@
         <v>6</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="7"/>
-        <v>gen double hdis_6  =  (amtspentperdish6101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_6  =  (amtspentperdish6101-amtspentperdish6103)^2</v>
       </c>
       <c r="L7" t="s">
         <v>301</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_6  =  (amtspentperdish6102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_6  =  (amtspentperdish6102-amtspentperdish6103)^2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -8690,15 +8847,15 @@
         <v>7</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="7"/>
-        <v>gen double hdis_7  =  (amtspentperdish7101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_7  =  (amtspentperdish7101-amtspentperdish7103)^2</v>
       </c>
       <c r="L8" t="s">
         <v>301</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_7  =  (amtspentperdish7102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_7  =  (amtspentperdish7102-amtspentperdish7103)^2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -8737,15 +8894,15 @@
         <v>8</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="7"/>
-        <v>gen double hdis_8  =  (amtspentperdish8101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_8  =  (amtspentperdish8101-amtspentperdish8103)^2</v>
       </c>
       <c r="L9" t="s">
         <v>301</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_8  =  (amtspentperdish8102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_8  =  (amtspentperdish8102-amtspentperdish8103)^2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -8784,15 +8941,15 @@
         <v>9</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="7"/>
-        <v>gen double hdis_9  =  (amtspentperdish9101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_9  =  (amtspentperdish9101-amtspentperdish9103)^2</v>
       </c>
       <c r="L10" t="s">
         <v>301</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_9  =  (amtspentperdish9102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_9  =  (amtspentperdish9102-amtspentperdish9103)^2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -8831,15 +8988,15 @@
         <v>10</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ref="K11:K66" si="8">CONCATENATE(I11,J11,"  =  (",F11,"-",$H$2,")^2")</f>
-        <v>gen double hdis_10  =  (amtspentperdish10101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_10  =  (amtspentperdish10101-amtspentperdish10103)^2</v>
       </c>
       <c r="L11" t="s">
         <v>301</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_10  =  (amtspentperdish10102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_10  =  (amtspentperdish10102-amtspentperdish10103)^2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8878,15 +9035,15 @@
         <v>12</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_12  =  (amtspentperdish12101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_12  =  (amtspentperdish12101-amtspentperdish12103)^2</v>
       </c>
       <c r="L12" t="s">
         <v>301</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_12  =  (amtspentperdish12102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_12  =  (amtspentperdish12102-amtspentperdish12103)^2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -8925,15 +9082,15 @@
         <v>13</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_13  =  (amtspentperdish13101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_13  =  (amtspentperdish13101-amtspentperdish13103)^2</v>
       </c>
       <c r="L13" t="s">
         <v>301</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_13  =  (amtspentperdish13102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_13  =  (amtspentperdish13102-amtspentperdish13103)^2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -8972,15 +9129,15 @@
         <v>14</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_14  =  (amtspentperdish14101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_14  =  (amtspentperdish14101-amtspentperdish14103)^2</v>
       </c>
       <c r="L14" t="s">
         <v>301</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_14  =  (amtspentperdish14102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_14  =  (amtspentperdish14102-amtspentperdish14103)^2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -9019,15 +9176,15 @@
         <v>15</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_15  =  (amtspentperdish15101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_15  =  (amtspentperdish15101-amtspentperdish15103)^2</v>
       </c>
       <c r="L15" t="s">
         <v>301</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_15  =  (amtspentperdish15102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_15  =  (amtspentperdish15102-amtspentperdish15103)^2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9066,15 +9223,15 @@
         <v>16</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_16  =  (amtspentperdish16101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_16  =  (amtspentperdish16101-amtspentperdish16103)^2</v>
       </c>
       <c r="L16" t="s">
         <v>301</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_16  =  (amtspentperdish16102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_16  =  (amtspentperdish16102-amtspentperdish16103)^2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -9113,15 +9270,15 @@
         <v>17</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_17  =  (amtspentperdish17101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_17  =  (amtspentperdish17101-amtspentperdish17103)^2</v>
       </c>
       <c r="L17" t="s">
         <v>301</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_17  =  (amtspentperdish17102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_17  =  (amtspentperdish17102-amtspentperdish17103)^2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9160,15 +9317,15 @@
         <v>18</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_18  =  (amtspentperdish18101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_18  =  (amtspentperdish18101-amtspentperdish18103)^2</v>
       </c>
       <c r="L18" t="s">
         <v>301</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_18  =  (amtspentperdish18102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_18  =  (amtspentperdish18102-amtspentperdish18103)^2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9207,15 +9364,15 @@
         <v>19</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_19  =  (amtspentperdish19101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_19  =  (amtspentperdish19101-amtspentperdish19103)^2</v>
       </c>
       <c r="L19" t="s">
         <v>301</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_19  =  (amtspentperdish19102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_19  =  (amtspentperdish19102-amtspentperdish19103)^2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9254,15 +9411,15 @@
         <v>20</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_20  =  (amtspentperdish20101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_20  =  (amtspentperdish20101-amtspentperdish20103)^2</v>
       </c>
       <c r="L20" t="s">
         <v>301</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_20  =  (amtspentperdish20102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_20  =  (amtspentperdish20102-amtspentperdish20103)^2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -9301,15 +9458,15 @@
         <v>21</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_21  =  (amtspentperdish21101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_21  =  (amtspentperdish21101-amtspentperdish21103)^2</v>
       </c>
       <c r="L21" t="s">
         <v>301</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_21  =  (amtspentperdish21102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_21  =  (amtspentperdish21102-amtspentperdish21103)^2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -9348,15 +9505,15 @@
         <v>22</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_22  =  (amtspentperdish22101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_22  =  (amtspentperdish22101-amtspentperdish22103)^2</v>
       </c>
       <c r="L22" t="s">
         <v>301</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_22  =  (amtspentperdish22102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_22  =  (amtspentperdish22102-amtspentperdish22103)^2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -9395,15 +9552,15 @@
         <v>23</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_23  =  (amtspentperdish23101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_23  =  (amtspentperdish23101-amtspentperdish23103)^2</v>
       </c>
       <c r="L23" t="s">
         <v>301</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_23  =  (amtspentperdish23102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_23  =  (amtspentperdish23102-amtspentperdish23103)^2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -9442,15 +9599,15 @@
         <v>24</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_24  =  (amtspentperdish24101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_24  =  (amtspentperdish24101-amtspentperdish24103)^2</v>
       </c>
       <c r="L24" t="s">
         <v>301</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_24  =  (amtspentperdish24102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_24  =  (amtspentperdish24102-amtspentperdish24103)^2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -9489,15 +9646,15 @@
         <v>26</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_26  =  (amtspentperdish26101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_26  =  (amtspentperdish26101-amtspentperdish26103)^2</v>
       </c>
       <c r="L25" t="s">
         <v>301</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_26  =  (amtspentperdish26102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_26  =  (amtspentperdish26102-amtspentperdish26103)^2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -9536,15 +9693,15 @@
         <v>27</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_27  =  (amtspentperdish27101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_27  =  (amtspentperdish27101-amtspentperdish27103)^2</v>
       </c>
       <c r="L26" t="s">
         <v>301</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_27  =  (amtspentperdish27102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_27  =  (amtspentperdish27102-amtspentperdish27103)^2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -9583,15 +9740,15 @@
         <v>28</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_28  =  (amtspentperdish28101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_28  =  (amtspentperdish28101-amtspentperdish28103)^2</v>
       </c>
       <c r="L27" t="s">
         <v>301</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_28  =  (amtspentperdish28102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_28  =  (amtspentperdish28102-amtspentperdish28103)^2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -9630,15 +9787,15 @@
         <v>29</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_29  =  (amtspentperdish29101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_29  =  (amtspentperdish29101-amtspentperdish29103)^2</v>
       </c>
       <c r="L28" t="s">
         <v>301</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_29  =  (amtspentperdish29102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_29  =  (amtspentperdish29102-amtspentperdish29103)^2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -9677,15 +9834,15 @@
         <v>30</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_30  =  (amtspentperdish30101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_30  =  (amtspentperdish30101-amtspentperdish30103)^2</v>
       </c>
       <c r="L29" t="s">
         <v>301</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_30  =  (amtspentperdish30102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_30  =  (amtspentperdish30102-amtspentperdish30103)^2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -9724,15 +9881,15 @@
         <v>31</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_31  =  (amtspentperdish31101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_31  =  (amtspentperdish31101-amtspentperdish31103)^2</v>
       </c>
       <c r="L30" t="s">
         <v>301</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_31  =  (amtspentperdish31102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_31  =  (amtspentperdish31102-amtspentperdish31103)^2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -9771,15 +9928,15 @@
         <v>32</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_32  =  (amtspentperdish32101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_32  =  (amtspentperdish32101-amtspentperdish32103)^2</v>
       </c>
       <c r="L31" t="s">
         <v>301</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_32  =  (amtspentperdish32102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_32  =  (amtspentperdish32102-amtspentperdish32103)^2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -9818,15 +9975,15 @@
         <v>33</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_33  =  (amtspentperdish33101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_33  =  (amtspentperdish33101-amtspentperdish33103)^2</v>
       </c>
       <c r="L32" t="s">
         <v>301</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_33  =  (amtspentperdish33102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_33  =  (amtspentperdish33102-amtspentperdish33103)^2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -9865,15 +10022,15 @@
         <v>34</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_34  =  (amtspentperdish34101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_34  =  (amtspentperdish34101-amtspentperdish34103)^2</v>
       </c>
       <c r="L33" t="s">
         <v>301</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_34  =  (amtspentperdish34102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_34  =  (amtspentperdish34102-amtspentperdish34103)^2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -9912,15 +10069,15 @@
         <v>35</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_35  =  (amtspentperdish35101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_35  =  (amtspentperdish35101-amtspentperdish35103)^2</v>
       </c>
       <c r="L34" t="s">
         <v>301</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_35  =  (amtspentperdish35102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_35  =  (amtspentperdish35102-amtspentperdish35103)^2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -9959,15 +10116,15 @@
         <v>37</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_37  =  (amtspentperdish37101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_37  =  (amtspentperdish37101-amtspentperdish37103)^2</v>
       </c>
       <c r="L35" t="s">
         <v>301</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_37  =  (amtspentperdish37102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_37  =  (amtspentperdish37102-amtspentperdish37103)^2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -10006,15 +10163,15 @@
         <v>39</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_39  =  (amtspentperdish39101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_39  =  (amtspentperdish39101-amtspentperdish39103)^2</v>
       </c>
       <c r="L36" t="s">
         <v>301</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_39  =  (amtspentperdish39102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_39  =  (amtspentperdish39102-amtspentperdish39103)^2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -10053,15 +10210,15 @@
         <v>40</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_40  =  (amtspentperdish40101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_40  =  (amtspentperdish40101-amtspentperdish40103)^2</v>
       </c>
       <c r="L37" t="s">
         <v>301</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_40  =  (amtspentperdish40102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_40  =  (amtspentperdish40102-amtspentperdish40103)^2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -10100,15 +10257,15 @@
         <v>43</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_43  =  (amtspentperdish43101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_43  =  (amtspentperdish43101-amtspentperdish43103)^2</v>
       </c>
       <c r="L38" t="s">
         <v>301</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_43  =  (amtspentperdish43102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_43  =  (amtspentperdish43102-amtspentperdish43103)^2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -10147,15 +10304,15 @@
         <v>44</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_44  =  (amtspentperdish44101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_44  =  (amtspentperdish44101-amtspentperdish44103)^2</v>
       </c>
       <c r="L39" t="s">
         <v>301</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_44  =  (amtspentperdish44102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_44  =  (amtspentperdish44102-amtspentperdish44103)^2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -10194,15 +10351,15 @@
         <v>46</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_46  =  (amtspentperdish46101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_46  =  (amtspentperdish46101-amtspentperdish46103)^2</v>
       </c>
       <c r="L40" t="s">
         <v>301</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_46  =  (amtspentperdish46102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_46  =  (amtspentperdish46102-amtspentperdish46103)^2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -10241,15 +10398,15 @@
         <v>47</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_47  =  (amtspentperdish47101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_47  =  (amtspentperdish47101-amtspentperdish47103)^2</v>
       </c>
       <c r="L41" t="s">
         <v>301</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_47  =  (amtspentperdish47102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_47  =  (amtspentperdish47102-amtspentperdish47103)^2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -10288,15 +10445,15 @@
         <v>48</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_48  =  (amtspentperdish48101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_48  =  (amtspentperdish48101-amtspentperdish48103)^2</v>
       </c>
       <c r="L42" t="s">
         <v>301</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_48  =  (amtspentperdish48102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_48  =  (amtspentperdish48102-amtspentperdish48103)^2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -10335,15 +10492,15 @@
         <v>51</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_51  =  (amtspentperdish51101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_51  =  (amtspentperdish51101-amtspentperdish51103)^2</v>
       </c>
       <c r="L43" t="s">
         <v>301</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_51  =  (amtspentperdish51102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_51  =  (amtspentperdish51102-amtspentperdish51103)^2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -10382,15 +10539,15 @@
         <v>53</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_53  =  (amtspentperdish53101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_53  =  (amtspentperdish53101-amtspentperdish53103)^2</v>
       </c>
       <c r="L44" t="s">
         <v>301</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_53  =  (amtspentperdish53102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_53  =  (amtspentperdish53102-amtspentperdish53103)^2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -10429,15 +10586,15 @@
         <v>54</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_54  =  (amtspentperdish54101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_54  =  (amtspentperdish54101-amtspentperdish54103)^2</v>
       </c>
       <c r="L45" t="s">
         <v>301</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_54  =  (amtspentperdish54102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_54  =  (amtspentperdish54102-amtspentperdish54103)^2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -10476,15 +10633,15 @@
         <v>55</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_55  =  (amtspentperdish55101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_55  =  (amtspentperdish55101-amtspentperdish55103)^2</v>
       </c>
       <c r="L46" t="s">
         <v>301</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_55  =  (amtspentperdish55102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_55  =  (amtspentperdish55102-amtspentperdish55103)^2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -10523,15 +10680,15 @@
         <v>56</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_56  =  (amtspentperdish56101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_56  =  (amtspentperdish56101-amtspentperdish56103)^2</v>
       </c>
       <c r="L47" t="s">
         <v>301</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_56  =  (amtspentperdish56102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_56  =  (amtspentperdish56102-amtspentperdish56103)^2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -10570,15 +10727,15 @@
         <v>57</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_57  =  (amtspentperdish57101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_57  =  (amtspentperdish57101-amtspentperdish57103)^2</v>
       </c>
       <c r="L48" t="s">
         <v>301</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_57  =  (amtspentperdish57102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_57  =  (amtspentperdish57102-amtspentperdish57103)^2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -10617,15 +10774,15 @@
         <v>58</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_58  =  (amtspentperdish58101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_58  =  (amtspentperdish58101-amtspentperdish58103)^2</v>
       </c>
       <c r="L49" t="s">
         <v>301</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_58  =  (amtspentperdish58102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_58  =  (amtspentperdish58102-amtspentperdish58103)^2</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -10664,15 +10821,15 @@
         <v>59</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_59  =  (amtspentperdish59101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_59  =  (amtspentperdish59101-amtspentperdish59103)^2</v>
       </c>
       <c r="L50" t="s">
         <v>301</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_59  =  (amtspentperdish59102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_59  =  (amtspentperdish59102-amtspentperdish59103)^2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -10711,15 +10868,15 @@
         <v>60</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_60  =  (amtspentperdish60101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_60  =  (amtspentperdish60101-amtspentperdish60103)^2</v>
       </c>
       <c r="L51" t="s">
         <v>301</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_60  =  (amtspentperdish60102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_60  =  (amtspentperdish60102-amtspentperdish60103)^2</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -10758,15 +10915,15 @@
         <v>63</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_63  =  (amtspentperdish63101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_63  =  (amtspentperdish63101-amtspentperdish63103)^2</v>
       </c>
       <c r="L52" t="s">
         <v>301</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_63  =  (amtspentperdish63102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_63  =  (amtspentperdish63102-amtspentperdish63103)^2</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -10805,15 +10962,15 @@
         <v>64</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_64  =  (amtspentperdish64101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_64  =  (amtspentperdish64101-amtspentperdish64103)^2</v>
       </c>
       <c r="L53" t="s">
         <v>301</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_64  =  (amtspentperdish64102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_64  =  (amtspentperdish64102-amtspentperdish64103)^2</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -10852,15 +11009,15 @@
         <v>65</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_65  =  (amtspentperdish65101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_65  =  (amtspentperdish65101-amtspentperdish65103)^2</v>
       </c>
       <c r="L54" t="s">
         <v>301</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_65  =  (amtspentperdish65102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_65  =  (amtspentperdish65102-amtspentperdish65103)^2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -10899,15 +11056,15 @@
         <v>66</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_66  =  (amtspentperdish66101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_66  =  (amtspentperdish66101-amtspentperdish66103)^2</v>
       </c>
       <c r="L55" t="s">
         <v>301</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_66  =  (amtspentperdish66102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_66  =  (amtspentperdish66102-amtspentperdish66103)^2</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -10946,15 +11103,15 @@
         <v>67</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_67  =  (amtspentperdish67101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_67  =  (amtspentperdish67101-amtspentperdish67103)^2</v>
       </c>
       <c r="L56" t="s">
         <v>301</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_67  =  (amtspentperdish67102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_67  =  (amtspentperdish67102-amtspentperdish67103)^2</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -10993,15 +11150,15 @@
         <v>68</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_68  =  (amtspentperdish68101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_68  =  (amtspentperdish68101-amtspentperdish68103)^2</v>
       </c>
       <c r="L57" t="s">
         <v>301</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_68  =  (amtspentperdish68102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_68  =  (amtspentperdish68102-amtspentperdish68103)^2</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -11040,15 +11197,15 @@
         <v>69</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_69  =  (amtspentperdish69101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_69  =  (amtspentperdish69101-amtspentperdish69103)^2</v>
       </c>
       <c r="L58" t="s">
         <v>301</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_69  =  (amtspentperdish69102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_69  =  (amtspentperdish69102-amtspentperdish69103)^2</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -11087,15 +11244,15 @@
         <v>70</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_70  =  (amtspentperdish70101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_70  =  (amtspentperdish70101-amtspentperdish70103)^2</v>
       </c>
       <c r="L59" t="s">
         <v>301</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_70  =  (amtspentperdish70102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_70  =  (amtspentperdish70102-amtspentperdish70103)^2</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -11134,15 +11291,15 @@
         <v>71</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_71  =  (amtspentperdish71101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_71  =  (amtspentperdish71101-amtspentperdish71103)^2</v>
       </c>
       <c r="L60" t="s">
         <v>301</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_71  =  (amtspentperdish71102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_71  =  (amtspentperdish71102-amtspentperdish71103)^2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -11181,15 +11338,15 @@
         <v>72</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_72  =  (amtspentperdish72101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_72  =  (amtspentperdish72101-amtspentperdish72103)^2</v>
       </c>
       <c r="L61" t="s">
         <v>301</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_72  =  (amtspentperdish72102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_72  =  (amtspentperdish72102-amtspentperdish72103)^2</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -11228,15 +11385,15 @@
         <v>73</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_73  =  (amtspentperdish73101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_73  =  (amtspentperdish73101-amtspentperdish73103)^2</v>
       </c>
       <c r="L62" t="s">
         <v>301</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_73  =  (amtspentperdish73102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_73  =  (amtspentperdish73102-amtspentperdish73103)^2</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -11275,15 +11432,15 @@
         <v>74</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_74  =  (amtspentperdish74101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_74  =  (amtspentperdish74101-amtspentperdish74103)^2</v>
       </c>
       <c r="L63" t="s">
         <v>301</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_74  =  (amtspentperdish74102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_74  =  (amtspentperdish74102-amtspentperdish74103)^2</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -11322,15 +11479,15 @@
         <v>75</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_75  =  (amtspentperdish75101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_75  =  (amtspentperdish75101-amtspentperdish75103)^2</v>
       </c>
       <c r="L64" t="s">
         <v>301</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_75  =  (amtspentperdish75102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_75  =  (amtspentperdish75102-amtspentperdish75103)^2</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -11369,15 +11526,15 @@
         <v>77</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_77  =  (amtspentperdish77101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_77  =  (amtspentperdish77101-amtspentperdish77103)^2</v>
       </c>
       <c r="L65" t="s">
         <v>301</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_77  =  (amtspentperdish77102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_77  =  (amtspentperdish77102-amtspentperdish77103)^2</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -11416,15 +11573,15 @@
         <v>78</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="8"/>
-        <v>gen double hdis_78  =  (amtspentperdish78101-amtspentperdish1103)^2</v>
+        <f t="shared" si="5"/>
+        <v>gen double hdis_78  =  (amtspentperdish78101-amtspentperdish78103)^2</v>
       </c>
       <c r="L66" t="s">
         <v>301</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="6"/>
-        <v>gen double wdis_78  =  (amtspentperdish78102-amtspentperdish1103)^2</v>
+        <v>gen double wdis_78  =  (amtspentperdish78102-amtspentperdish78103)^2</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -11444,34 +11601,34 @@
         <v>103</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="9">CONCATENATE($A67,C67)</f>
+        <f t="shared" ref="F67:F130" si="7">CONCATENATE($A67,C67)</f>
         <v>amtspentperdish80101</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G130" si="10">CONCATENATE($A67,D67)</f>
+        <f t="shared" ref="G67:G130" si="8">CONCATENATE($A67,D67)</f>
         <v>amtspentperdish80102</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="11">CONCATENATE($A67,E67)</f>
+        <f t="shared" ref="H67:H130" si="9">CONCATENATE($A67,E67)</f>
         <v>amtspentperdish80103</v>
       </c>
       <c r="I67" t="s">
         <v>303</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="12">B67</f>
+        <f t="shared" ref="J67:J130" si="10">B67</f>
         <v>80</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K130" si="13">CONCATENATE(I67,J67,"  =  (",F67,"-",$H$2,")^2")</f>
-        <v>gen double hdis_80  =  (amtspentperdish80101-amtspentperdish1103)^2</v>
+        <f t="shared" ref="K67:K130" si="11">CONCATENATE($I67,$J67,"  =  (",F67,"-",$H67,")^2")</f>
+        <v>gen double hdis_80  =  (amtspentperdish80101-amtspentperdish80103)^2</v>
       </c>
       <c r="L67" t="s">
         <v>301</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M130" si="14">CONCATENATE(L67,$J67,"  =  (",G67,"-",$H$2,")^2")</f>
-        <v>gen double wdis_80  =  (amtspentperdish80102-amtspentperdish1103)^2</v>
+        <f t="shared" ref="M67:M130" si="12">CONCATENATE(L67,$J67,"  =  (",G67,"-",$H67,")^2")</f>
+        <v>gen double wdis_80  =  (amtspentperdish80102-amtspentperdish80103)^2</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -11491,34 +11648,34 @@
         <v>103</v>
       </c>
       <c r="F68" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish81101</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish81102</v>
+      </c>
+      <c r="H68" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish81101</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish81102</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish81103</v>
       </c>
       <c r="I68" t="s">
         <v>303</v>
       </c>
       <c r="J68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_81  =  (amtspentperdish81101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_81  =  (amtspentperdish81101-amtspentperdish81103)^2</v>
       </c>
       <c r="L68" t="s">
         <v>301</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_81  =  (amtspentperdish81102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_81  =  (amtspentperdish81102-amtspentperdish81103)^2</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -11538,34 +11695,34 @@
         <v>103</v>
       </c>
       <c r="F69" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish83101</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish83102</v>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish83101</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish83102</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish83103</v>
       </c>
       <c r="I69" t="s">
         <v>303</v>
       </c>
       <c r="J69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_83  =  (amtspentperdish83101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_83  =  (amtspentperdish83101-amtspentperdish83103)^2</v>
       </c>
       <c r="L69" t="s">
         <v>301</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_83  =  (amtspentperdish83102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_83  =  (amtspentperdish83102-amtspentperdish83103)^2</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -11585,34 +11742,34 @@
         <v>103</v>
       </c>
       <c r="F70" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish84101</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish84102</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish84101</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish84102</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish84103</v>
       </c>
       <c r="I70" t="s">
         <v>303</v>
       </c>
       <c r="J70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_84  =  (amtspentperdish84101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_84  =  (amtspentperdish84101-amtspentperdish84103)^2</v>
       </c>
       <c r="L70" t="s">
         <v>301</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_84  =  (amtspentperdish84102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_84  =  (amtspentperdish84102-amtspentperdish84103)^2</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -11632,34 +11789,34 @@
         <v>103</v>
       </c>
       <c r="F71" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish85101</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish85102</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish85101</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish85102</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish85103</v>
       </c>
       <c r="I71" t="s">
         <v>303</v>
       </c>
       <c r="J71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_85  =  (amtspentperdish85101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_85  =  (amtspentperdish85101-amtspentperdish85103)^2</v>
       </c>
       <c r="L71" t="s">
         <v>301</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_85  =  (amtspentperdish85102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_85  =  (amtspentperdish85102-amtspentperdish85103)^2</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -11679,34 +11836,34 @@
         <v>103</v>
       </c>
       <c r="F72" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish87101</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish87102</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish87101</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish87102</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish87103</v>
       </c>
       <c r="I72" t="s">
         <v>303</v>
       </c>
       <c r="J72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_87  =  (amtspentperdish87101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_87  =  (amtspentperdish87101-amtspentperdish87103)^2</v>
       </c>
       <c r="L72" t="s">
         <v>301</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_87  =  (amtspentperdish87102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_87  =  (amtspentperdish87102-amtspentperdish87103)^2</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -11726,34 +11883,34 @@
         <v>103</v>
       </c>
       <c r="F73" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish88101</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish88102</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish88101</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish88102</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish88103</v>
       </c>
       <c r="I73" t="s">
         <v>303</v>
       </c>
       <c r="J73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_88  =  (amtspentperdish88101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_88  =  (amtspentperdish88101-amtspentperdish88103)^2</v>
       </c>
       <c r="L73" t="s">
         <v>301</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_88  =  (amtspentperdish88102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_88  =  (amtspentperdish88102-amtspentperdish88103)^2</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -11773,34 +11930,34 @@
         <v>103</v>
       </c>
       <c r="F74" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish89101</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish89102</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish89101</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish89102</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish89103</v>
       </c>
       <c r="I74" t="s">
         <v>303</v>
       </c>
       <c r="J74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_89  =  (amtspentperdish89101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_89  =  (amtspentperdish89101-amtspentperdish89103)^2</v>
       </c>
       <c r="L74" t="s">
         <v>301</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_89  =  (amtspentperdish89102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_89  =  (amtspentperdish89102-amtspentperdish89103)^2</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -11820,34 +11977,34 @@
         <v>103</v>
       </c>
       <c r="F75" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish90101</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish90102</v>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish90101</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish90102</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish90103</v>
       </c>
       <c r="I75" t="s">
         <v>303</v>
       </c>
       <c r="J75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_90  =  (amtspentperdish90101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_90  =  (amtspentperdish90101-amtspentperdish90103)^2</v>
       </c>
       <c r="L75" t="s">
         <v>301</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_90  =  (amtspentperdish90102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_90  =  (amtspentperdish90102-amtspentperdish90103)^2</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -11867,34 +12024,34 @@
         <v>103</v>
       </c>
       <c r="F76" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish91101</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish91102</v>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish91101</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish91102</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish91103</v>
       </c>
       <c r="I76" t="s">
         <v>303</v>
       </c>
       <c r="J76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_91  =  (amtspentperdish91101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_91  =  (amtspentperdish91101-amtspentperdish91103)^2</v>
       </c>
       <c r="L76" t="s">
         <v>301</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_91  =  (amtspentperdish91102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_91  =  (amtspentperdish91102-amtspentperdish91103)^2</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -11914,34 +12071,34 @@
         <v>103</v>
       </c>
       <c r="F77" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish92101</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish92102</v>
+      </c>
+      <c r="H77" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish92101</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish92102</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish92103</v>
       </c>
       <c r="I77" t="s">
         <v>303</v>
       </c>
       <c r="J77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_92  =  (amtspentperdish92101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_92  =  (amtspentperdish92101-amtspentperdish92103)^2</v>
       </c>
       <c r="L77" t="s">
         <v>301</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_92  =  (amtspentperdish92102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_92  =  (amtspentperdish92102-amtspentperdish92103)^2</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -11961,34 +12118,34 @@
         <v>103</v>
       </c>
       <c r="F78" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish93101</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish93102</v>
+      </c>
+      <c r="H78" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish93101</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish93102</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish93103</v>
       </c>
       <c r="I78" t="s">
         <v>303</v>
       </c>
       <c r="J78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_93  =  (amtspentperdish93101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_93  =  (amtspentperdish93101-amtspentperdish93103)^2</v>
       </c>
       <c r="L78" t="s">
         <v>301</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_93  =  (amtspentperdish93102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_93  =  (amtspentperdish93102-amtspentperdish93103)^2</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -12008,34 +12165,34 @@
         <v>103</v>
       </c>
       <c r="F79" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish94101</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish94102</v>
+      </c>
+      <c r="H79" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish94101</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish94102</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish94103</v>
       </c>
       <c r="I79" t="s">
         <v>303</v>
       </c>
       <c r="J79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_94  =  (amtspentperdish94101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_94  =  (amtspentperdish94101-amtspentperdish94103)^2</v>
       </c>
       <c r="L79" t="s">
         <v>301</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_94  =  (amtspentperdish94102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_94  =  (amtspentperdish94102-amtspentperdish94103)^2</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -12055,34 +12212,34 @@
         <v>103</v>
       </c>
       <c r="F80" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish95101</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish95102</v>
+      </c>
+      <c r="H80" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish95101</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish95102</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish95103</v>
       </c>
       <c r="I80" t="s">
         <v>303</v>
       </c>
       <c r="J80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_95  =  (amtspentperdish95101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_95  =  (amtspentperdish95101-amtspentperdish95103)^2</v>
       </c>
       <c r="L80" t="s">
         <v>301</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_95  =  (amtspentperdish95102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_95  =  (amtspentperdish95102-amtspentperdish95103)^2</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -12102,34 +12259,34 @@
         <v>103</v>
       </c>
       <c r="F81" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish96101</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish96102</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish96101</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish96102</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish96103</v>
       </c>
       <c r="I81" t="s">
         <v>303</v>
       </c>
       <c r="J81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_96  =  (amtspentperdish96101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_96  =  (amtspentperdish96101-amtspentperdish96103)^2</v>
       </c>
       <c r="L81" t="s">
         <v>301</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_96  =  (amtspentperdish96102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_96  =  (amtspentperdish96102-amtspentperdish96103)^2</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -12149,34 +12306,34 @@
         <v>103</v>
       </c>
       <c r="F82" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish97101</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish97102</v>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish97101</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish97102</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish97103</v>
       </c>
       <c r="I82" t="s">
         <v>303</v>
       </c>
       <c r="J82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_97  =  (amtspentperdish97101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_97  =  (amtspentperdish97101-amtspentperdish97103)^2</v>
       </c>
       <c r="L82" t="s">
         <v>301</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_97  =  (amtspentperdish97102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_97  =  (amtspentperdish97102-amtspentperdish97103)^2</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -12196,34 +12353,34 @@
         <v>103</v>
       </c>
       <c r="F83" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish99101</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish99102</v>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish99101</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish99102</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish99103</v>
       </c>
       <c r="I83" t="s">
         <v>303</v>
       </c>
       <c r="J83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_99  =  (amtspentperdish99101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_99  =  (amtspentperdish99101-amtspentperdish99103)^2</v>
       </c>
       <c r="L83" t="s">
         <v>301</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_99  =  (amtspentperdish99102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_99  =  (amtspentperdish99102-amtspentperdish99103)^2</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -12243,34 +12400,34 @@
         <v>103</v>
       </c>
       <c r="F84" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish101101</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish101102</v>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish101101</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish101102</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish101103</v>
       </c>
       <c r="I84" t="s">
         <v>303</v>
       </c>
       <c r="J84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_101  =  (amtspentperdish101101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_101  =  (amtspentperdish101101-amtspentperdish101103)^2</v>
       </c>
       <c r="L84" t="s">
         <v>301</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_101  =  (amtspentperdish101102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_101  =  (amtspentperdish101102-amtspentperdish101103)^2</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -12290,34 +12447,34 @@
         <v>103</v>
       </c>
       <c r="F85" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish102101</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish102102</v>
+      </c>
+      <c r="H85" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish102101</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish102102</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish102103</v>
       </c>
       <c r="I85" t="s">
         <v>303</v>
       </c>
       <c r="J85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_102  =  (amtspentperdish102101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_102  =  (amtspentperdish102101-amtspentperdish102103)^2</v>
       </c>
       <c r="L85" t="s">
         <v>301</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_102  =  (amtspentperdish102102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_102  =  (amtspentperdish102102-amtspentperdish102103)^2</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -12337,34 +12494,34 @@
         <v>103</v>
       </c>
       <c r="F86" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish103101</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish103102</v>
+      </c>
+      <c r="H86" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish103101</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish103102</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish103103</v>
       </c>
       <c r="I86" t="s">
         <v>303</v>
       </c>
       <c r="J86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_103  =  (amtspentperdish103101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_103  =  (amtspentperdish103101-amtspentperdish103103)^2</v>
       </c>
       <c r="L86" t="s">
         <v>301</v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_103  =  (amtspentperdish103102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_103  =  (amtspentperdish103102-amtspentperdish103103)^2</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -12384,34 +12541,34 @@
         <v>103</v>
       </c>
       <c r="F87" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish104101</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish104102</v>
+      </c>
+      <c r="H87" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish104101</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish104102</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish104103</v>
       </c>
       <c r="I87" t="s">
         <v>303</v>
       </c>
       <c r="J87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_104  =  (amtspentperdish104101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_104  =  (amtspentperdish104101-amtspentperdish104103)^2</v>
       </c>
       <c r="L87" t="s">
         <v>301</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_104  =  (amtspentperdish104102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_104  =  (amtspentperdish104102-amtspentperdish104103)^2</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -12431,34 +12588,34 @@
         <v>103</v>
       </c>
       <c r="F88" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish105101</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish105102</v>
+      </c>
+      <c r="H88" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish105101</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish105102</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish105103</v>
       </c>
       <c r="I88" t="s">
         <v>303</v>
       </c>
       <c r="J88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_105  =  (amtspentperdish105101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_105  =  (amtspentperdish105101-amtspentperdish105103)^2</v>
       </c>
       <c r="L88" t="s">
         <v>301</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_105  =  (amtspentperdish105102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_105  =  (amtspentperdish105102-amtspentperdish105103)^2</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -12478,34 +12635,34 @@
         <v>103</v>
       </c>
       <c r="F89" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish106101</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish106102</v>
+      </c>
+      <c r="H89" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish106101</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish106102</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish106103</v>
       </c>
       <c r="I89" t="s">
         <v>303</v>
       </c>
       <c r="J89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_106  =  (amtspentperdish106101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_106  =  (amtspentperdish106101-amtspentperdish106103)^2</v>
       </c>
       <c r="L89" t="s">
         <v>301</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_106  =  (amtspentperdish106102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_106  =  (amtspentperdish106102-amtspentperdish106103)^2</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -12525,34 +12682,34 @@
         <v>103</v>
       </c>
       <c r="F90" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish107101</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish107102</v>
+      </c>
+      <c r="H90" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish107101</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish107102</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish107103</v>
       </c>
       <c r="I90" t="s">
         <v>303</v>
       </c>
       <c r="J90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_107  =  (amtspentperdish107101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_107  =  (amtspentperdish107101-amtspentperdish107103)^2</v>
       </c>
       <c r="L90" t="s">
         <v>301</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_107  =  (amtspentperdish107102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_107  =  (amtspentperdish107102-amtspentperdish107103)^2</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -12572,34 +12729,34 @@
         <v>103</v>
       </c>
       <c r="F91" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish108101</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish108102</v>
+      </c>
+      <c r="H91" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish108101</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish108102</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish108103</v>
       </c>
       <c r="I91" t="s">
         <v>303</v>
       </c>
       <c r="J91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>108</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_108  =  (amtspentperdish108101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_108  =  (amtspentperdish108101-amtspentperdish108103)^2</v>
       </c>
       <c r="L91" t="s">
         <v>301</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_108  =  (amtspentperdish108102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_108  =  (amtspentperdish108102-amtspentperdish108103)^2</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -12619,34 +12776,34 @@
         <v>103</v>
       </c>
       <c r="F92" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish110101</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish110102</v>
+      </c>
+      <c r="H92" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish110101</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish110102</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish110103</v>
       </c>
       <c r="I92" t="s">
         <v>303</v>
       </c>
       <c r="J92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_110  =  (amtspentperdish110101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_110  =  (amtspentperdish110101-amtspentperdish110103)^2</v>
       </c>
       <c r="L92" t="s">
         <v>301</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_110  =  (amtspentperdish110102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_110  =  (amtspentperdish110102-amtspentperdish110103)^2</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -12666,34 +12823,34 @@
         <v>103</v>
       </c>
       <c r="F93" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish111101</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish111102</v>
+      </c>
+      <c r="H93" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish111101</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish111102</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish111103</v>
       </c>
       <c r="I93" t="s">
         <v>303</v>
       </c>
       <c r="J93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>111</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_111  =  (amtspentperdish111101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_111  =  (amtspentperdish111101-amtspentperdish111103)^2</v>
       </c>
       <c r="L93" t="s">
         <v>301</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_111  =  (amtspentperdish111102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_111  =  (amtspentperdish111102-amtspentperdish111103)^2</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -12713,34 +12870,34 @@
         <v>103</v>
       </c>
       <c r="F94" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish112101</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish112102</v>
+      </c>
+      <c r="H94" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish112101</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish112102</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish112103</v>
       </c>
       <c r="I94" t="s">
         <v>303</v>
       </c>
       <c r="J94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>112</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_112  =  (amtspentperdish112101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_112  =  (amtspentperdish112101-amtspentperdish112103)^2</v>
       </c>
       <c r="L94" t="s">
         <v>301</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_112  =  (amtspentperdish112102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_112  =  (amtspentperdish112102-amtspentperdish112103)^2</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -12760,34 +12917,34 @@
         <v>103</v>
       </c>
       <c r="F95" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish113101</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish113102</v>
+      </c>
+      <c r="H95" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish113101</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish113102</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish113103</v>
       </c>
       <c r="I95" t="s">
         <v>303</v>
       </c>
       <c r="J95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>113</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_113  =  (amtspentperdish113101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_113  =  (amtspentperdish113101-amtspentperdish113103)^2</v>
       </c>
       <c r="L95" t="s">
         <v>301</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_113  =  (amtspentperdish113102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_113  =  (amtspentperdish113102-amtspentperdish113103)^2</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -12807,34 +12964,34 @@
         <v>103</v>
       </c>
       <c r="F96" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish114101</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish114102</v>
+      </c>
+      <c r="H96" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish114101</v>
-      </c>
-      <c r="G96" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish114102</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish114103</v>
       </c>
       <c r="I96" t="s">
         <v>303</v>
       </c>
       <c r="J96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>114</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_114  =  (amtspentperdish114101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_114  =  (amtspentperdish114101-amtspentperdish114103)^2</v>
       </c>
       <c r="L96" t="s">
         <v>301</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_114  =  (amtspentperdish114102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_114  =  (amtspentperdish114102-amtspentperdish114103)^2</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -12854,34 +13011,34 @@
         <v>103</v>
       </c>
       <c r="F97" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish115101</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish115102</v>
+      </c>
+      <c r="H97" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish115101</v>
-      </c>
-      <c r="G97" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish115102</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish115103</v>
       </c>
       <c r="I97" t="s">
         <v>303</v>
       </c>
       <c r="J97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_115  =  (amtspentperdish115101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_115  =  (amtspentperdish115101-amtspentperdish115103)^2</v>
       </c>
       <c r="L97" t="s">
         <v>301</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_115  =  (amtspentperdish115102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_115  =  (amtspentperdish115102-amtspentperdish115103)^2</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -12901,34 +13058,34 @@
         <v>103</v>
       </c>
       <c r="F98" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish116101</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish116102</v>
+      </c>
+      <c r="H98" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish116101</v>
-      </c>
-      <c r="G98" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish116102</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish116103</v>
       </c>
       <c r="I98" t="s">
         <v>303</v>
       </c>
       <c r="J98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>116</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_116  =  (amtspentperdish116101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_116  =  (amtspentperdish116101-amtspentperdish116103)^2</v>
       </c>
       <c r="L98" t="s">
         <v>301</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_116  =  (amtspentperdish116102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_116  =  (amtspentperdish116102-amtspentperdish116103)^2</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -12948,34 +13105,34 @@
         <v>103</v>
       </c>
       <c r="F99" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish117101</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish117102</v>
+      </c>
+      <c r="H99" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish117101</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish117102</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish117103</v>
       </c>
       <c r="I99" t="s">
         <v>303</v>
       </c>
       <c r="J99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_117  =  (amtspentperdish117101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_117  =  (amtspentperdish117101-amtspentperdish117103)^2</v>
       </c>
       <c r="L99" t="s">
         <v>301</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_117  =  (amtspentperdish117102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_117  =  (amtspentperdish117102-amtspentperdish117103)^2</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -12995,34 +13152,34 @@
         <v>103</v>
       </c>
       <c r="F100" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish118101</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish118102</v>
+      </c>
+      <c r="H100" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish118101</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish118102</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish118103</v>
       </c>
       <c r="I100" t="s">
         <v>303</v>
       </c>
       <c r="J100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>118</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_118  =  (amtspentperdish118101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_118  =  (amtspentperdish118101-amtspentperdish118103)^2</v>
       </c>
       <c r="L100" t="s">
         <v>301</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_118  =  (amtspentperdish118102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_118  =  (amtspentperdish118102-amtspentperdish118103)^2</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -13042,34 +13199,34 @@
         <v>103</v>
       </c>
       <c r="F101" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish119101</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish119102</v>
+      </c>
+      <c r="H101" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish119101</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish119102</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish119103</v>
       </c>
       <c r="I101" t="s">
         <v>303</v>
       </c>
       <c r="J101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>119</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_119  =  (amtspentperdish119101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_119  =  (amtspentperdish119101-amtspentperdish119103)^2</v>
       </c>
       <c r="L101" t="s">
         <v>301</v>
       </c>
       <c r="M101" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_119  =  (amtspentperdish119102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_119  =  (amtspentperdish119102-amtspentperdish119103)^2</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -13089,34 +13246,34 @@
         <v>103</v>
       </c>
       <c r="F102" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish120101</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish120102</v>
+      </c>
+      <c r="H102" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish120101</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish120102</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish120103</v>
       </c>
       <c r="I102" t="s">
         <v>303</v>
       </c>
       <c r="J102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_120  =  (amtspentperdish120101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_120  =  (amtspentperdish120101-amtspentperdish120103)^2</v>
       </c>
       <c r="L102" t="s">
         <v>301</v>
       </c>
       <c r="M102" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_120  =  (amtspentperdish120102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_120  =  (amtspentperdish120102-amtspentperdish120103)^2</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -13136,34 +13293,34 @@
         <v>103</v>
       </c>
       <c r="F103" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish121101</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish121102</v>
+      </c>
+      <c r="H103" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish121101</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish121102</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish121103</v>
       </c>
       <c r="I103" t="s">
         <v>303</v>
       </c>
       <c r="J103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_121  =  (amtspentperdish121101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_121  =  (amtspentperdish121101-amtspentperdish121103)^2</v>
       </c>
       <c r="L103" t="s">
         <v>301</v>
       </c>
       <c r="M103" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_121  =  (amtspentperdish121102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_121  =  (amtspentperdish121102-amtspentperdish121103)^2</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -13183,34 +13340,34 @@
         <v>103</v>
       </c>
       <c r="F104" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish122101</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish122102</v>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish122101</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish122102</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish122103</v>
       </c>
       <c r="I104" t="s">
         <v>303</v>
       </c>
       <c r="J104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_122  =  (amtspentperdish122101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_122  =  (amtspentperdish122101-amtspentperdish122103)^2</v>
       </c>
       <c r="L104" t="s">
         <v>301</v>
       </c>
       <c r="M104" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_122  =  (amtspentperdish122102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_122  =  (amtspentperdish122102-amtspentperdish122103)^2</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -13230,34 +13387,34 @@
         <v>103</v>
       </c>
       <c r="F105" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish123101</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish123102</v>
+      </c>
+      <c r="H105" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish123101</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish123102</v>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish123103</v>
       </c>
       <c r="I105" t="s">
         <v>303</v>
       </c>
       <c r="J105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>123</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_123  =  (amtspentperdish123101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_123  =  (amtspentperdish123101-amtspentperdish123103)^2</v>
       </c>
       <c r="L105" t="s">
         <v>301</v>
       </c>
       <c r="M105" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_123  =  (amtspentperdish123102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_123  =  (amtspentperdish123102-amtspentperdish123103)^2</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -13277,34 +13434,34 @@
         <v>103</v>
       </c>
       <c r="F106" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish124101</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish124102</v>
+      </c>
+      <c r="H106" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish124101</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish124102</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish124103</v>
       </c>
       <c r="I106" t="s">
         <v>303</v>
       </c>
       <c r="J106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>124</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_124  =  (amtspentperdish124101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_124  =  (amtspentperdish124101-amtspentperdish124103)^2</v>
       </c>
       <c r="L106" t="s">
         <v>301</v>
       </c>
       <c r="M106" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_124  =  (amtspentperdish124102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_124  =  (amtspentperdish124102-amtspentperdish124103)^2</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -13324,34 +13481,34 @@
         <v>103</v>
       </c>
       <c r="F107" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish125101</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish125102</v>
+      </c>
+      <c r="H107" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish125101</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish125102</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish125103</v>
       </c>
       <c r="I107" t="s">
         <v>303</v>
       </c>
       <c r="J107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_125  =  (amtspentperdish125101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_125  =  (amtspentperdish125101-amtspentperdish125103)^2</v>
       </c>
       <c r="L107" t="s">
         <v>301</v>
       </c>
       <c r="M107" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_125  =  (amtspentperdish125102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_125  =  (amtspentperdish125102-amtspentperdish125103)^2</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -13371,34 +13528,34 @@
         <v>103</v>
       </c>
       <c r="F108" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish126101</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish126102</v>
+      </c>
+      <c r="H108" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish126101</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish126102</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish126103</v>
       </c>
       <c r="I108" t="s">
         <v>303</v>
       </c>
       <c r="J108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>126</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_126  =  (amtspentperdish126101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_126  =  (amtspentperdish126101-amtspentperdish126103)^2</v>
       </c>
       <c r="L108" t="s">
         <v>301</v>
       </c>
       <c r="M108" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_126  =  (amtspentperdish126102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_126  =  (amtspentperdish126102-amtspentperdish126103)^2</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -13418,34 +13575,34 @@
         <v>103</v>
       </c>
       <c r="F109" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish129101</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish129102</v>
+      </c>
+      <c r="H109" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish129101</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish129102</v>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish129103</v>
       </c>
       <c r="I109" t="s">
         <v>303</v>
       </c>
       <c r="J109">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>129</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_129  =  (amtspentperdish129101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_129  =  (amtspentperdish129101-amtspentperdish129103)^2</v>
       </c>
       <c r="L109" t="s">
         <v>301</v>
       </c>
       <c r="M109" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_129  =  (amtspentperdish129102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_129  =  (amtspentperdish129102-amtspentperdish129103)^2</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -13465,34 +13622,34 @@
         <v>103</v>
       </c>
       <c r="F110" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish130101</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish130102</v>
+      </c>
+      <c r="H110" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish130101</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish130102</v>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish130103</v>
       </c>
       <c r="I110" t="s">
         <v>303</v>
       </c>
       <c r="J110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>130</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_130  =  (amtspentperdish130101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_130  =  (amtspentperdish130101-amtspentperdish130103)^2</v>
       </c>
       <c r="L110" t="s">
         <v>301</v>
       </c>
       <c r="M110" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_130  =  (amtspentperdish130102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_130  =  (amtspentperdish130102-amtspentperdish130103)^2</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -13512,34 +13669,34 @@
         <v>103</v>
       </c>
       <c r="F111" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish131101</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish131102</v>
+      </c>
+      <c r="H111" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish131101</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish131102</v>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish131103</v>
       </c>
       <c r="I111" t="s">
         <v>303</v>
       </c>
       <c r="J111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>131</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_131  =  (amtspentperdish131101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_131  =  (amtspentperdish131101-amtspentperdish131103)^2</v>
       </c>
       <c r="L111" t="s">
         <v>301</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_131  =  (amtspentperdish131102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_131  =  (amtspentperdish131102-amtspentperdish131103)^2</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -13559,34 +13716,34 @@
         <v>103</v>
       </c>
       <c r="F112" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish132101</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish132102</v>
+      </c>
+      <c r="H112" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish132101</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish132102</v>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish132103</v>
       </c>
       <c r="I112" t="s">
         <v>303</v>
       </c>
       <c r="J112">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_132  =  (amtspentperdish132101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_132  =  (amtspentperdish132101-amtspentperdish132103)^2</v>
       </c>
       <c r="L112" t="s">
         <v>301</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_132  =  (amtspentperdish132102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_132  =  (amtspentperdish132102-amtspentperdish132103)^2</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -13606,34 +13763,34 @@
         <v>103</v>
       </c>
       <c r="F113" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish133101</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish133102</v>
+      </c>
+      <c r="H113" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish133101</v>
-      </c>
-      <c r="G113" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish133102</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish133103</v>
       </c>
       <c r="I113" t="s">
         <v>303</v>
       </c>
       <c r="J113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_133  =  (amtspentperdish133101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_133  =  (amtspentperdish133101-amtspentperdish133103)^2</v>
       </c>
       <c r="L113" t="s">
         <v>301</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_133  =  (amtspentperdish133102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_133  =  (amtspentperdish133102-amtspentperdish133103)^2</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -13653,34 +13810,34 @@
         <v>103</v>
       </c>
       <c r="F114" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish134101</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish134102</v>
+      </c>
+      <c r="H114" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish134101</v>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish134102</v>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish134103</v>
       </c>
       <c r="I114" t="s">
         <v>303</v>
       </c>
       <c r="J114">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_134  =  (amtspentperdish134101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_134  =  (amtspentperdish134101-amtspentperdish134103)^2</v>
       </c>
       <c r="L114" t="s">
         <v>301</v>
       </c>
       <c r="M114" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_134  =  (amtspentperdish134102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_134  =  (amtspentperdish134102-amtspentperdish134103)^2</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -13700,34 +13857,34 @@
         <v>103</v>
       </c>
       <c r="F115" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish135101</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish135102</v>
+      </c>
+      <c r="H115" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish135101</v>
-      </c>
-      <c r="G115" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish135102</v>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish135103</v>
       </c>
       <c r="I115" t="s">
         <v>303</v>
       </c>
       <c r="J115">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_135  =  (amtspentperdish135101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_135  =  (amtspentperdish135101-amtspentperdish135103)^2</v>
       </c>
       <c r="L115" t="s">
         <v>301</v>
       </c>
       <c r="M115" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_135  =  (amtspentperdish135102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_135  =  (amtspentperdish135102-amtspentperdish135103)^2</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -13747,34 +13904,34 @@
         <v>103</v>
       </c>
       <c r="F116" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish136101</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish136102</v>
+      </c>
+      <c r="H116" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish136101</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish136102</v>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish136103</v>
       </c>
       <c r="I116" t="s">
         <v>303</v>
       </c>
       <c r="J116">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_136  =  (amtspentperdish136101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_136  =  (amtspentperdish136101-amtspentperdish136103)^2</v>
       </c>
       <c r="L116" t="s">
         <v>301</v>
       </c>
       <c r="M116" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_136  =  (amtspentperdish136102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_136  =  (amtspentperdish136102-amtspentperdish136103)^2</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -13794,34 +13951,34 @@
         <v>103</v>
       </c>
       <c r="F117" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish138101</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish138102</v>
+      </c>
+      <c r="H117" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish138101</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish138102</v>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish138103</v>
       </c>
       <c r="I117" t="s">
         <v>303</v>
       </c>
       <c r="J117">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_138  =  (amtspentperdish138101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_138  =  (amtspentperdish138101-amtspentperdish138103)^2</v>
       </c>
       <c r="L117" t="s">
         <v>301</v>
       </c>
       <c r="M117" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_138  =  (amtspentperdish138102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_138  =  (amtspentperdish138102-amtspentperdish138103)^2</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -13841,34 +13998,34 @@
         <v>103</v>
       </c>
       <c r="F118" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish139101</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish139102</v>
+      </c>
+      <c r="H118" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish139101</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish139102</v>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish139103</v>
       </c>
       <c r="I118" t="s">
         <v>303</v>
       </c>
       <c r="J118">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_139  =  (amtspentperdish139101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_139  =  (amtspentperdish139101-amtspentperdish139103)^2</v>
       </c>
       <c r="L118" t="s">
         <v>301</v>
       </c>
       <c r="M118" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_139  =  (amtspentperdish139102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_139  =  (amtspentperdish139102-amtspentperdish139103)^2</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -13888,34 +14045,34 @@
         <v>103</v>
       </c>
       <c r="F119" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish140101</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish140102</v>
+      </c>
+      <c r="H119" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish140101</v>
-      </c>
-      <c r="G119" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish140102</v>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish140103</v>
       </c>
       <c r="I119" t="s">
         <v>303</v>
       </c>
       <c r="J119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_140  =  (amtspentperdish140101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_140  =  (amtspentperdish140101-amtspentperdish140103)^2</v>
       </c>
       <c r="L119" t="s">
         <v>301</v>
       </c>
       <c r="M119" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_140  =  (amtspentperdish140102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_140  =  (amtspentperdish140102-amtspentperdish140103)^2</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -13935,34 +14092,34 @@
         <v>103</v>
       </c>
       <c r="F120" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish141101</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish141102</v>
+      </c>
+      <c r="H120" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish141101</v>
-      </c>
-      <c r="G120" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish141102</v>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish141103</v>
       </c>
       <c r="I120" t="s">
         <v>303</v>
       </c>
       <c r="J120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_141  =  (amtspentperdish141101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_141  =  (amtspentperdish141101-amtspentperdish141103)^2</v>
       </c>
       <c r="L120" t="s">
         <v>301</v>
       </c>
       <c r="M120" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_141  =  (amtspentperdish141102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_141  =  (amtspentperdish141102-amtspentperdish141103)^2</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -13982,34 +14139,34 @@
         <v>103</v>
       </c>
       <c r="F121" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish142101</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish142102</v>
+      </c>
+      <c r="H121" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish142101</v>
-      </c>
-      <c r="G121" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish142102</v>
-      </c>
-      <c r="H121" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish142103</v>
       </c>
       <c r="I121" t="s">
         <v>303</v>
       </c>
       <c r="J121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_142  =  (amtspentperdish142101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_142  =  (amtspentperdish142101-amtspentperdish142103)^2</v>
       </c>
       <c r="L121" t="s">
         <v>301</v>
       </c>
       <c r="M121" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_142  =  (amtspentperdish142102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_142  =  (amtspentperdish142102-amtspentperdish142103)^2</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -14029,34 +14186,34 @@
         <v>103</v>
       </c>
       <c r="F122" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish144101</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish144102</v>
+      </c>
+      <c r="H122" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish144101</v>
-      </c>
-      <c r="G122" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish144102</v>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish144103</v>
       </c>
       <c r="I122" t="s">
         <v>303</v>
       </c>
       <c r="J122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_144  =  (amtspentperdish144101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_144  =  (amtspentperdish144101-amtspentperdish144103)^2</v>
       </c>
       <c r="L122" t="s">
         <v>301</v>
       </c>
       <c r="M122" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_144  =  (amtspentperdish144102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_144  =  (amtspentperdish144102-amtspentperdish144103)^2</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -14076,34 +14233,34 @@
         <v>103</v>
       </c>
       <c r="F123" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish145101</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish145102</v>
+      </c>
+      <c r="H123" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish145101</v>
-      </c>
-      <c r="G123" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish145102</v>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish145103</v>
       </c>
       <c r="I123" t="s">
         <v>303</v>
       </c>
       <c r="J123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_145  =  (amtspentperdish145101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_145  =  (amtspentperdish145101-amtspentperdish145103)^2</v>
       </c>
       <c r="L123" t="s">
         <v>301</v>
       </c>
       <c r="M123" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_145  =  (amtspentperdish145102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_145  =  (amtspentperdish145102-amtspentperdish145103)^2</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -14123,34 +14280,34 @@
         <v>103</v>
       </c>
       <c r="F124" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish146101</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish146102</v>
+      </c>
+      <c r="H124" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish146101</v>
-      </c>
-      <c r="G124" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish146102</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish146103</v>
       </c>
       <c r="I124" t="s">
         <v>303</v>
       </c>
       <c r="J124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_146  =  (amtspentperdish146101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_146  =  (amtspentperdish146101-amtspentperdish146103)^2</v>
       </c>
       <c r="L124" t="s">
         <v>301</v>
       </c>
       <c r="M124" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_146  =  (amtspentperdish146102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_146  =  (amtspentperdish146102-amtspentperdish146103)^2</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -14170,34 +14327,34 @@
         <v>103</v>
       </c>
       <c r="F125" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish147101</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish147102</v>
+      </c>
+      <c r="H125" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish147101</v>
-      </c>
-      <c r="G125" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish147102</v>
-      </c>
-      <c r="H125" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish147103</v>
       </c>
       <c r="I125" t="s">
         <v>303</v>
       </c>
       <c r="J125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_147  =  (amtspentperdish147101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_147  =  (amtspentperdish147101-amtspentperdish147103)^2</v>
       </c>
       <c r="L125" t="s">
         <v>301</v>
       </c>
       <c r="M125" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_147  =  (amtspentperdish147102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_147  =  (amtspentperdish147102-amtspentperdish147103)^2</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -14217,34 +14374,34 @@
         <v>103</v>
       </c>
       <c r="F126" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish148101</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish148102</v>
+      </c>
+      <c r="H126" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish148101</v>
-      </c>
-      <c r="G126" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish148102</v>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish148103</v>
       </c>
       <c r="I126" t="s">
         <v>303</v>
       </c>
       <c r="J126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_148  =  (amtspentperdish148101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_148  =  (amtspentperdish148101-amtspentperdish148103)^2</v>
       </c>
       <c r="L126" t="s">
         <v>301</v>
       </c>
       <c r="M126" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_148  =  (amtspentperdish148102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_148  =  (amtspentperdish148102-amtspentperdish148103)^2</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -14264,34 +14421,34 @@
         <v>103</v>
       </c>
       <c r="F127" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish151101</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish151102</v>
+      </c>
+      <c r="H127" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish151101</v>
-      </c>
-      <c r="G127" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish151102</v>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish151103</v>
       </c>
       <c r="I127" t="s">
         <v>303</v>
       </c>
       <c r="J127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_151  =  (amtspentperdish151101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_151  =  (amtspentperdish151101-amtspentperdish151103)^2</v>
       </c>
       <c r="L127" t="s">
         <v>301</v>
       </c>
       <c r="M127" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_151  =  (amtspentperdish151102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_151  =  (amtspentperdish151102-amtspentperdish151103)^2</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -14311,34 +14468,34 @@
         <v>103</v>
       </c>
       <c r="F128" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish153101</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish153102</v>
+      </c>
+      <c r="H128" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish153101</v>
-      </c>
-      <c r="G128" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish153102</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish153103</v>
       </c>
       <c r="I128" t="s">
         <v>303</v>
       </c>
       <c r="J128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_153  =  (amtspentperdish153101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_153  =  (amtspentperdish153101-amtspentperdish153103)^2</v>
       </c>
       <c r="L128" t="s">
         <v>301</v>
       </c>
       <c r="M128" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_153  =  (amtspentperdish153102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_153  =  (amtspentperdish153102-amtspentperdish153103)^2</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -14358,34 +14515,34 @@
         <v>103</v>
       </c>
       <c r="F129" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish154101</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish154102</v>
+      </c>
+      <c r="H129" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish154101</v>
-      </c>
-      <c r="G129" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish154102</v>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish154103</v>
       </c>
       <c r="I129" t="s">
         <v>303</v>
       </c>
       <c r="J129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_154  =  (amtspentperdish154101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_154  =  (amtspentperdish154101-amtspentperdish154103)^2</v>
       </c>
       <c r="L129" t="s">
         <v>301</v>
       </c>
       <c r="M129" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_154  =  (amtspentperdish154102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_154  =  (amtspentperdish154102-amtspentperdish154103)^2</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -14405,34 +14562,34 @@
         <v>103</v>
       </c>
       <c r="F130" t="str">
+        <f t="shared" si="7"/>
+        <v>amtspentperdish157101</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="8"/>
+        <v>amtspentperdish157102</v>
+      </c>
+      <c r="H130" t="str">
         <f t="shared" si="9"/>
-        <v>amtspentperdish157101</v>
-      </c>
-      <c r="G130" t="str">
-        <f t="shared" si="10"/>
-        <v>amtspentperdish157102</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" si="11"/>
         <v>amtspentperdish157103</v>
       </c>
       <c r="I130" t="s">
         <v>303</v>
       </c>
       <c r="J130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="13"/>
-        <v>gen double hdis_157  =  (amtspentperdish157101-amtspentperdish1103)^2</v>
+        <f t="shared" si="11"/>
+        <v>gen double hdis_157  =  (amtspentperdish157101-amtspentperdish157103)^2</v>
       </c>
       <c r="L130" t="s">
         <v>301</v>
       </c>
       <c r="M130" t="str">
-        <f t="shared" si="14"/>
-        <v>gen double wdis_157  =  (amtspentperdish157102-amtspentperdish1103)^2</v>
+        <f t="shared" si="12"/>
+        <v>gen double wdis_157  =  (amtspentperdish157102-amtspentperdish157103)^2</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -14452,34 +14609,34 @@
         <v>103</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131" si="15">CONCATENATE($A131,C131)</f>
+        <f t="shared" ref="F131" si="13">CONCATENATE($A131,C131)</f>
         <v>amtspentperdish158101</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131" si="16">CONCATENATE($A131,D131)</f>
+        <f t="shared" ref="G131" si="14">CONCATENATE($A131,D131)</f>
         <v>amtspentperdish158102</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131" si="17">CONCATENATE($A131,E131)</f>
+        <f t="shared" ref="H131" si="15">CONCATENATE($A131,E131)</f>
         <v>amtspentperdish158103</v>
       </c>
       <c r="I131" t="s">
         <v>303</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131" si="18">B131</f>
+        <f t="shared" ref="J131" si="16">B131</f>
         <v>158</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" ref="K131" si="19">CONCATENATE(I131,J131,"  =  (",F131,"-",$H$2,")^2")</f>
-        <v>gen double hdis_158  =  (amtspentperdish158101-amtspentperdish1103)^2</v>
+        <f t="shared" ref="K131" si="17">CONCATENATE($I131,$J131,"  =  (",F131,"-",$H131,")^2")</f>
+        <v>gen double hdis_158  =  (amtspentperdish158101-amtspentperdish158103)^2</v>
       </c>
       <c r="L131" t="s">
         <v>301</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" ref="M131" si="20">CONCATENATE(L131,$J131,"  =  (",G131,"-",$H$2,")^2")</f>
-        <v>gen double wdis_158  =  (amtspentperdish158102-amtspentperdish1103)^2</v>
+        <f t="shared" ref="M131" si="18">CONCATENATE(L131,$J131,"  =  (",G131,"-",$H131,")^2")</f>
+        <v>gen double wdis_158  =  (amtspentperdish158102-amtspentperdish158103)^2</v>
       </c>
     </row>
   </sheetData>
@@ -14507,7 +14664,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>390</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -14516,21 +14673,21 @@
       <c r="C1" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="35" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/Behavioral Expt/17c_datamgt_ihdmpdishspent.xlsx
+++ b/Behavioral Expt/17c_datamgt_ihdmpdishspent.xlsx
@@ -921,9 +921,6 @@
     <t>amtspentperdish158</t>
   </si>
   <si>
-    <t>hdis_invdish</t>
-  </si>
-  <si>
     <t>gen double wdis_</t>
   </si>
   <si>
@@ -1256,6 +1253,9 @@
   </si>
   <si>
     <t>amt spent on chapati</t>
+  </si>
+  <si>
+    <t>hdis_invdish (computing the distance)</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1898,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -1909,52 +1909,52 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B12" s="1">
         <v>1.0503999999999999E-3</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" s="1">
         <v>-5.0625000000000002E-3</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B14" s="1">
         <v>8.2918000000000002E-3</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B15" s="1">
         <v>-6.9026000000000001E-3</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B16" s="1">
         <v>6.6508000000000001E-3</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B17" s="1">
         <v>-4.8470000000000002E-4</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" s="1">
         <v>9.3630000000000004E-4</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B19" s="1">
         <v>4.0146000000000001E-3</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B20" s="1">
         <v>1.30341E-2</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B21" s="1">
         <v>1.5873E-3</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B22" s="1">
         <v>5.0515999999999998E-3</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B23" s="1">
         <v>-2.743E-4</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B24" s="1">
         <v>-1.01425E-2</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" s="1">
         <v>9.0670000000000004E-3</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B26" s="1">
         <v>-2.4118199999999999E-2</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B27" s="1">
         <v>-9.0299999999999999E-5</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B28" s="1">
         <v>-2.6559000000000001E-3</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B29" s="1">
         <v>2.90891E-2</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="1">
         <v>-2.5246999999999999E-3</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B31" s="1">
         <v>-4.3248000000000002E-3</v>
@@ -2425,8 +2425,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2446,7 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2456,7 +2456,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3230,7 +3230,7 @@
         <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3629,7 +3629,7 @@
         <v>169</v>
       </c>
       <c r="D66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3956,7 +3956,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -3964,7 +3964,7 @@
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -3993,22 +3993,22 @@
         <v>199</v>
       </c>
       <c r="G92" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="H92" s="15" t="s">
+      <c r="I92" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="J92" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="J92" s="15" t="s">
+      <c r="K92" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="K92" s="15" t="s">
+      <c r="L92" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="L92" s="15" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4054,13 +4054,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
@@ -4073,25 +4073,25 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B99" t="s">
+        <v>306</v>
+      </c>
+      <c r="C99" t="s">
         <v>307</v>
       </c>
-      <c r="C99" t="s">
-        <v>308</v>
-      </c>
       <c r="D99" t="s">
+        <v>304</v>
+      </c>
+      <c r="E99" t="s">
         <v>305</v>
       </c>
-      <c r="E99" t="s">
-        <v>306</v>
-      </c>
       <c r="F99" t="s">
+        <v>320</v>
+      </c>
+      <c r="G99" t="s">
         <v>321</v>
-      </c>
-      <c r="G99" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4242,25 +4242,25 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B107" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" t="s">
         <v>307</v>
       </c>
-      <c r="C107" t="s">
-        <v>308</v>
-      </c>
       <c r="D107" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107" t="s">
         <v>305</v>
       </c>
-      <c r="E107" t="s">
-        <v>306</v>
-      </c>
       <c r="F107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G107" t="s">
         <v>321</v>
-      </c>
-      <c r="G107" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4380,30 +4380,30 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B118" t="s">
+        <v>402</v>
+      </c>
+      <c r="C118" t="s">
         <v>403</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>404</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>405</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>406</v>
       </c>
-      <c r="F118" t="s">
+      <c r="H118" t="s">
         <v>407</v>
-      </c>
-      <c r="H118" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -8497,8 +8497,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M111" sqref="M111"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M131" sqref="M2:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8514,19 +8514,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" t="s">
         <v>302</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M1" t="s">
         <v>303</v>
-      </c>
-      <c r="K1" t="s">
-        <v>300</v>
-      </c>
-      <c r="L1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8558,7 +8558,7 @@
         <v>amtspentperdish1103</v>
       </c>
       <c r="I2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J2">
         <f>B2</f>
@@ -8569,7 +8569,7 @@
         <v>gen double hdis_1  =  (amtspentperdish1101-amtspentperdish1103)^2</v>
       </c>
       <c r="L2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE(L2,$J2,"  =  (",G2,"-",$H2,")^2")</f>
@@ -8605,7 +8605,7 @@
         <v>amtspentperdish2103</v>
       </c>
       <c r="I3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="4">B3</f>
@@ -8616,7 +8616,7 @@
         <v>gen double hdis_2  =  (amtspentperdish2101-amtspentperdish2103)^2</v>
       </c>
       <c r="L3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M66" si="6">CONCATENATE(L3,$J3,"  =  (",G3,"-",$H3,")^2")</f>
@@ -8652,7 +8652,7 @@
         <v>amtspentperdish3103</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
@@ -8663,7 +8663,7 @@
         <v>gen double hdis_3  =  (amtspentperdish3101-amtspentperdish3103)^2</v>
       </c>
       <c r="L4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="6"/>
@@ -8699,7 +8699,7 @@
         <v>amtspentperdish4103</v>
       </c>
       <c r="I5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
@@ -8710,7 +8710,7 @@
         <v>gen double hdis_4  =  (amtspentperdish4101-amtspentperdish4103)^2</v>
       </c>
       <c r="L5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="6"/>
@@ -8746,7 +8746,7 @@
         <v>amtspentperdish5103</v>
       </c>
       <c r="I6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
@@ -8757,7 +8757,7 @@
         <v>gen double hdis_5  =  (amtspentperdish5101-amtspentperdish5103)^2</v>
       </c>
       <c r="L6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="6"/>
@@ -8793,7 +8793,7 @@
         <v>amtspentperdish6103</v>
       </c>
       <c r="I7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
@@ -8804,7 +8804,7 @@
         <v>gen double hdis_6  =  (amtspentperdish6101-amtspentperdish6103)^2</v>
       </c>
       <c r="L7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="6"/>
@@ -8840,7 +8840,7 @@
         <v>amtspentperdish7103</v>
       </c>
       <c r="I8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
@@ -8851,7 +8851,7 @@
         <v>gen double hdis_7  =  (amtspentperdish7101-amtspentperdish7103)^2</v>
       </c>
       <c r="L8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="6"/>
@@ -8887,7 +8887,7 @@
         <v>amtspentperdish8103</v>
       </c>
       <c r="I9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
@@ -8898,7 +8898,7 @@
         <v>gen double hdis_8  =  (amtspentperdish8101-amtspentperdish8103)^2</v>
       </c>
       <c r="L9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="6"/>
@@ -8934,7 +8934,7 @@
         <v>amtspentperdish9103</v>
       </c>
       <c r="I10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
@@ -8945,7 +8945,7 @@
         <v>gen double hdis_9  =  (amtspentperdish9101-amtspentperdish9103)^2</v>
       </c>
       <c r="L10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="6"/>
@@ -8981,7 +8981,7 @@
         <v>amtspentperdish10103</v>
       </c>
       <c r="I11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
@@ -8992,7 +8992,7 @@
         <v>gen double hdis_10  =  (amtspentperdish10101-amtspentperdish10103)^2</v>
       </c>
       <c r="L11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="6"/>
@@ -9028,7 +9028,7 @@
         <v>amtspentperdish12103</v>
       </c>
       <c r="I12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
@@ -9039,7 +9039,7 @@
         <v>gen double hdis_12  =  (amtspentperdish12101-amtspentperdish12103)^2</v>
       </c>
       <c r="L12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="6"/>
@@ -9075,7 +9075,7 @@
         <v>amtspentperdish13103</v>
       </c>
       <c r="I13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
@@ -9086,7 +9086,7 @@
         <v>gen double hdis_13  =  (amtspentperdish13101-amtspentperdish13103)^2</v>
       </c>
       <c r="L13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="6"/>
@@ -9122,7 +9122,7 @@
         <v>amtspentperdish14103</v>
       </c>
       <c r="I14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
@@ -9133,7 +9133,7 @@
         <v>gen double hdis_14  =  (amtspentperdish14101-amtspentperdish14103)^2</v>
       </c>
       <c r="L14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="6"/>
@@ -9169,7 +9169,7 @@
         <v>amtspentperdish15103</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
@@ -9180,7 +9180,7 @@
         <v>gen double hdis_15  =  (amtspentperdish15101-amtspentperdish15103)^2</v>
       </c>
       <c r="L15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="6"/>
@@ -9216,7 +9216,7 @@
         <v>amtspentperdish16103</v>
       </c>
       <c r="I16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
@@ -9227,7 +9227,7 @@
         <v>gen double hdis_16  =  (amtspentperdish16101-amtspentperdish16103)^2</v>
       </c>
       <c r="L16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="6"/>
@@ -9263,7 +9263,7 @@
         <v>amtspentperdish17103</v>
       </c>
       <c r="I17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
@@ -9274,7 +9274,7 @@
         <v>gen double hdis_17  =  (amtspentperdish17101-amtspentperdish17103)^2</v>
       </c>
       <c r="L17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="6"/>
@@ -9310,7 +9310,7 @@
         <v>amtspentperdish18103</v>
       </c>
       <c r="I18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
@@ -9321,7 +9321,7 @@
         <v>gen double hdis_18  =  (amtspentperdish18101-amtspentperdish18103)^2</v>
       </c>
       <c r="L18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="6"/>
@@ -9357,7 +9357,7 @@
         <v>amtspentperdish19103</v>
       </c>
       <c r="I19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
@@ -9368,7 +9368,7 @@
         <v>gen double hdis_19  =  (amtspentperdish19101-amtspentperdish19103)^2</v>
       </c>
       <c r="L19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="6"/>
@@ -9404,7 +9404,7 @@
         <v>amtspentperdish20103</v>
       </c>
       <c r="I20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
@@ -9415,7 +9415,7 @@
         <v>gen double hdis_20  =  (amtspentperdish20101-amtspentperdish20103)^2</v>
       </c>
       <c r="L20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="6"/>
@@ -9451,7 +9451,7 @@
         <v>amtspentperdish21103</v>
       </c>
       <c r="I21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -9462,7 +9462,7 @@
         <v>gen double hdis_21  =  (amtspentperdish21101-amtspentperdish21103)^2</v>
       </c>
       <c r="L21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="6"/>
@@ -9498,7 +9498,7 @@
         <v>amtspentperdish22103</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
@@ -9509,7 +9509,7 @@
         <v>gen double hdis_22  =  (amtspentperdish22101-amtspentperdish22103)^2</v>
       </c>
       <c r="L22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="6"/>
@@ -9545,7 +9545,7 @@
         <v>amtspentperdish23103</v>
       </c>
       <c r="I23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
@@ -9556,7 +9556,7 @@
         <v>gen double hdis_23  =  (amtspentperdish23101-amtspentperdish23103)^2</v>
       </c>
       <c r="L23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="6"/>
@@ -9592,7 +9592,7 @@
         <v>amtspentperdish24103</v>
       </c>
       <c r="I24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
@@ -9603,7 +9603,7 @@
         <v>gen double hdis_24  =  (amtspentperdish24101-amtspentperdish24103)^2</v>
       </c>
       <c r="L24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="6"/>
@@ -9639,7 +9639,7 @@
         <v>amtspentperdish26103</v>
       </c>
       <c r="I25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
@@ -9650,7 +9650,7 @@
         <v>gen double hdis_26  =  (amtspentperdish26101-amtspentperdish26103)^2</v>
       </c>
       <c r="L25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="6"/>
@@ -9686,7 +9686,7 @@
         <v>amtspentperdish27103</v>
       </c>
       <c r="I26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
@@ -9697,7 +9697,7 @@
         <v>gen double hdis_27  =  (amtspentperdish27101-amtspentperdish27103)^2</v>
       </c>
       <c r="L26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="6"/>
@@ -9733,7 +9733,7 @@
         <v>amtspentperdish28103</v>
       </c>
       <c r="I27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
@@ -9744,7 +9744,7 @@
         <v>gen double hdis_28  =  (amtspentperdish28101-amtspentperdish28103)^2</v>
       </c>
       <c r="L27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="6"/>
@@ -9780,7 +9780,7 @@
         <v>amtspentperdish29103</v>
       </c>
       <c r="I28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
@@ -9791,7 +9791,7 @@
         <v>gen double hdis_29  =  (amtspentperdish29101-amtspentperdish29103)^2</v>
       </c>
       <c r="L28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="6"/>
@@ -9827,7 +9827,7 @@
         <v>amtspentperdish30103</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
@@ -9838,7 +9838,7 @@
         <v>gen double hdis_30  =  (amtspentperdish30101-amtspentperdish30103)^2</v>
       </c>
       <c r="L29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="6"/>
@@ -9874,7 +9874,7 @@
         <v>amtspentperdish31103</v>
       </c>
       <c r="I30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
@@ -9885,7 +9885,7 @@
         <v>gen double hdis_31  =  (amtspentperdish31101-amtspentperdish31103)^2</v>
       </c>
       <c r="L30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="6"/>
@@ -9921,7 +9921,7 @@
         <v>amtspentperdish32103</v>
       </c>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
@@ -9932,7 +9932,7 @@
         <v>gen double hdis_32  =  (amtspentperdish32101-amtspentperdish32103)^2</v>
       </c>
       <c r="L31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="6"/>
@@ -9968,7 +9968,7 @@
         <v>amtspentperdish33103</v>
       </c>
       <c r="I32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
@@ -9979,7 +9979,7 @@
         <v>gen double hdis_33  =  (amtspentperdish33101-amtspentperdish33103)^2</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="6"/>
@@ -10015,7 +10015,7 @@
         <v>amtspentperdish34103</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
@@ -10026,7 +10026,7 @@
         <v>gen double hdis_34  =  (amtspentperdish34101-amtspentperdish34103)^2</v>
       </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="6"/>
@@ -10062,7 +10062,7 @@
         <v>amtspentperdish35103</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
@@ -10073,7 +10073,7 @@
         <v>gen double hdis_35  =  (amtspentperdish35101-amtspentperdish35103)^2</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="6"/>
@@ -10109,7 +10109,7 @@
         <v>amtspentperdish37103</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
@@ -10120,7 +10120,7 @@
         <v>gen double hdis_37  =  (amtspentperdish37101-amtspentperdish37103)^2</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="6"/>
@@ -10156,7 +10156,7 @@
         <v>amtspentperdish39103</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
@@ -10167,7 +10167,7 @@
         <v>gen double hdis_39  =  (amtspentperdish39101-amtspentperdish39103)^2</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="6"/>
@@ -10203,7 +10203,7 @@
         <v>amtspentperdish40103</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
@@ -10214,7 +10214,7 @@
         <v>gen double hdis_40  =  (amtspentperdish40101-amtspentperdish40103)^2</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="6"/>
@@ -10250,7 +10250,7 @@
         <v>amtspentperdish43103</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
@@ -10261,7 +10261,7 @@
         <v>gen double hdis_43  =  (amtspentperdish43101-amtspentperdish43103)^2</v>
       </c>
       <c r="L38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="6"/>
@@ -10297,7 +10297,7 @@
         <v>amtspentperdish44103</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
@@ -10308,7 +10308,7 @@
         <v>gen double hdis_44  =  (amtspentperdish44101-amtspentperdish44103)^2</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="6"/>
@@ -10344,7 +10344,7 @@
         <v>amtspentperdish46103</v>
       </c>
       <c r="I40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
@@ -10355,7 +10355,7 @@
         <v>gen double hdis_46  =  (amtspentperdish46101-amtspentperdish46103)^2</v>
       </c>
       <c r="L40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="6"/>
@@ -10391,7 +10391,7 @@
         <v>amtspentperdish47103</v>
       </c>
       <c r="I41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
@@ -10402,7 +10402,7 @@
         <v>gen double hdis_47  =  (amtspentperdish47101-amtspentperdish47103)^2</v>
       </c>
       <c r="L41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="6"/>
@@ -10438,7 +10438,7 @@
         <v>amtspentperdish48103</v>
       </c>
       <c r="I42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
@@ -10449,7 +10449,7 @@
         <v>gen double hdis_48  =  (amtspentperdish48101-amtspentperdish48103)^2</v>
       </c>
       <c r="L42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="6"/>
@@ -10485,7 +10485,7 @@
         <v>amtspentperdish51103</v>
       </c>
       <c r="I43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
@@ -10496,7 +10496,7 @@
         <v>gen double hdis_51  =  (amtspentperdish51101-amtspentperdish51103)^2</v>
       </c>
       <c r="L43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="6"/>
@@ -10532,7 +10532,7 @@
         <v>amtspentperdish53103</v>
       </c>
       <c r="I44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
@@ -10543,7 +10543,7 @@
         <v>gen double hdis_53  =  (amtspentperdish53101-amtspentperdish53103)^2</v>
       </c>
       <c r="L44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="6"/>
@@ -10579,7 +10579,7 @@
         <v>amtspentperdish54103</v>
       </c>
       <c r="I45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
@@ -10590,7 +10590,7 @@
         <v>gen double hdis_54  =  (amtspentperdish54101-amtspentperdish54103)^2</v>
       </c>
       <c r="L45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="6"/>
@@ -10626,7 +10626,7 @@
         <v>amtspentperdish55103</v>
       </c>
       <c r="I46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
@@ -10637,7 +10637,7 @@
         <v>gen double hdis_55  =  (amtspentperdish55101-amtspentperdish55103)^2</v>
       </c>
       <c r="L46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="6"/>
@@ -10673,7 +10673,7 @@
         <v>amtspentperdish56103</v>
       </c>
       <c r="I47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
@@ -10684,7 +10684,7 @@
         <v>gen double hdis_56  =  (amtspentperdish56101-amtspentperdish56103)^2</v>
       </c>
       <c r="L47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="6"/>
@@ -10720,7 +10720,7 @@
         <v>amtspentperdish57103</v>
       </c>
       <c r="I48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
@@ -10731,7 +10731,7 @@
         <v>gen double hdis_57  =  (amtspentperdish57101-amtspentperdish57103)^2</v>
       </c>
       <c r="L48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="6"/>
@@ -10767,7 +10767,7 @@
         <v>amtspentperdish58103</v>
       </c>
       <c r="I49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J49">
         <f t="shared" si="4"/>
@@ -10778,7 +10778,7 @@
         <v>gen double hdis_58  =  (amtspentperdish58101-amtspentperdish58103)^2</v>
       </c>
       <c r="L49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="6"/>
@@ -10814,7 +10814,7 @@
         <v>amtspentperdish59103</v>
       </c>
       <c r="I50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
@@ -10825,7 +10825,7 @@
         <v>gen double hdis_59  =  (amtspentperdish59101-amtspentperdish59103)^2</v>
       </c>
       <c r="L50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="6"/>
@@ -10861,7 +10861,7 @@
         <v>amtspentperdish60103</v>
       </c>
       <c r="I51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
@@ -10872,7 +10872,7 @@
         <v>gen double hdis_60  =  (amtspentperdish60101-amtspentperdish60103)^2</v>
       </c>
       <c r="L51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="6"/>
@@ -10908,7 +10908,7 @@
         <v>amtspentperdish63103</v>
       </c>
       <c r="I52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J52">
         <f t="shared" si="4"/>
@@ -10919,7 +10919,7 @@
         <v>gen double hdis_63  =  (amtspentperdish63101-amtspentperdish63103)^2</v>
       </c>
       <c r="L52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="6"/>
@@ -10955,7 +10955,7 @@
         <v>amtspentperdish64103</v>
       </c>
       <c r="I53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J53">
         <f t="shared" si="4"/>
@@ -10966,7 +10966,7 @@
         <v>gen double hdis_64  =  (amtspentperdish64101-amtspentperdish64103)^2</v>
       </c>
       <c r="L53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="6"/>
@@ -11002,7 +11002,7 @@
         <v>amtspentperdish65103</v>
       </c>
       <c r="I54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J54">
         <f t="shared" si="4"/>
@@ -11013,7 +11013,7 @@
         <v>gen double hdis_65  =  (amtspentperdish65101-amtspentperdish65103)^2</v>
       </c>
       <c r="L54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="6"/>
@@ -11049,7 +11049,7 @@
         <v>amtspentperdish66103</v>
       </c>
       <c r="I55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J55">
         <f t="shared" si="4"/>
@@ -11060,7 +11060,7 @@
         <v>gen double hdis_66  =  (amtspentperdish66101-amtspentperdish66103)^2</v>
       </c>
       <c r="L55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="6"/>
@@ -11096,7 +11096,7 @@
         <v>amtspentperdish67103</v>
       </c>
       <c r="I56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
@@ -11107,7 +11107,7 @@
         <v>gen double hdis_67  =  (amtspentperdish67101-amtspentperdish67103)^2</v>
       </c>
       <c r="L56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="6"/>
@@ -11143,7 +11143,7 @@
         <v>amtspentperdish68103</v>
       </c>
       <c r="I57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
@@ -11154,7 +11154,7 @@
         <v>gen double hdis_68  =  (amtspentperdish68101-amtspentperdish68103)^2</v>
       </c>
       <c r="L57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="6"/>
@@ -11190,7 +11190,7 @@
         <v>amtspentperdish69103</v>
       </c>
       <c r="I58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
@@ -11201,7 +11201,7 @@
         <v>gen double hdis_69  =  (amtspentperdish69101-amtspentperdish69103)^2</v>
       </c>
       <c r="L58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="6"/>
@@ -11237,7 +11237,7 @@
         <v>amtspentperdish70103</v>
       </c>
       <c r="I59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J59">
         <f t="shared" si="4"/>
@@ -11248,7 +11248,7 @@
         <v>gen double hdis_70  =  (amtspentperdish70101-amtspentperdish70103)^2</v>
       </c>
       <c r="L59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="6"/>
@@ -11284,7 +11284,7 @@
         <v>amtspentperdish71103</v>
       </c>
       <c r="I60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J60">
         <f t="shared" si="4"/>
@@ -11295,7 +11295,7 @@
         <v>gen double hdis_71  =  (amtspentperdish71101-amtspentperdish71103)^2</v>
       </c>
       <c r="L60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="6"/>
@@ -11331,7 +11331,7 @@
         <v>amtspentperdish72103</v>
       </c>
       <c r="I61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
@@ -11342,7 +11342,7 @@
         <v>gen double hdis_72  =  (amtspentperdish72101-amtspentperdish72103)^2</v>
       </c>
       <c r="L61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="6"/>
@@ -11378,7 +11378,7 @@
         <v>amtspentperdish73103</v>
       </c>
       <c r="I62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
@@ -11389,7 +11389,7 @@
         <v>gen double hdis_73  =  (amtspentperdish73101-amtspentperdish73103)^2</v>
       </c>
       <c r="L62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="6"/>
@@ -11425,7 +11425,7 @@
         <v>amtspentperdish74103</v>
       </c>
       <c r="I63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J63">
         <f t="shared" si="4"/>
@@ -11436,7 +11436,7 @@
         <v>gen double hdis_74  =  (amtspentperdish74101-amtspentperdish74103)^2</v>
       </c>
       <c r="L63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="6"/>
@@ -11472,7 +11472,7 @@
         <v>amtspentperdish75103</v>
       </c>
       <c r="I64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J64">
         <f t="shared" si="4"/>
@@ -11483,7 +11483,7 @@
         <v>gen double hdis_75  =  (amtspentperdish75101-amtspentperdish75103)^2</v>
       </c>
       <c r="L64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="6"/>
@@ -11519,7 +11519,7 @@
         <v>amtspentperdish77103</v>
       </c>
       <c r="I65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J65">
         <f t="shared" si="4"/>
@@ -11530,7 +11530,7 @@
         <v>gen double hdis_77  =  (amtspentperdish77101-amtspentperdish77103)^2</v>
       </c>
       <c r="L65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="6"/>
@@ -11566,7 +11566,7 @@
         <v>amtspentperdish78103</v>
       </c>
       <c r="I66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J66">
         <f t="shared" si="4"/>
@@ -11577,7 +11577,7 @@
         <v>gen double hdis_78  =  (amtspentperdish78101-amtspentperdish78103)^2</v>
       </c>
       <c r="L66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="6"/>
@@ -11613,7 +11613,7 @@
         <v>amtspentperdish80103</v>
       </c>
       <c r="I67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J67">
         <f t="shared" ref="J67:J130" si="10">B67</f>
@@ -11624,7 +11624,7 @@
         <v>gen double hdis_80  =  (amtspentperdish80101-amtspentperdish80103)^2</v>
       </c>
       <c r="L67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" ref="M67:M130" si="12">CONCATENATE(L67,$J67,"  =  (",G67,"-",$H67,")^2")</f>
@@ -11660,7 +11660,7 @@
         <v>amtspentperdish81103</v>
       </c>
       <c r="I68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J68">
         <f t="shared" si="10"/>
@@ -11671,7 +11671,7 @@
         <v>gen double hdis_81  =  (amtspentperdish81101-amtspentperdish81103)^2</v>
       </c>
       <c r="L68" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="12"/>
@@ -11707,7 +11707,7 @@
         <v>amtspentperdish83103</v>
       </c>
       <c r="I69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J69">
         <f t="shared" si="10"/>
@@ -11718,7 +11718,7 @@
         <v>gen double hdis_83  =  (amtspentperdish83101-amtspentperdish83103)^2</v>
       </c>
       <c r="L69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="12"/>
@@ -11754,7 +11754,7 @@
         <v>amtspentperdish84103</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J70">
         <f t="shared" si="10"/>
@@ -11765,7 +11765,7 @@
         <v>gen double hdis_84  =  (amtspentperdish84101-amtspentperdish84103)^2</v>
       </c>
       <c r="L70" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="12"/>
@@ -11801,7 +11801,7 @@
         <v>amtspentperdish85103</v>
       </c>
       <c r="I71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J71">
         <f t="shared" si="10"/>
@@ -11812,7 +11812,7 @@
         <v>gen double hdis_85  =  (amtspentperdish85101-amtspentperdish85103)^2</v>
       </c>
       <c r="L71" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="12"/>
@@ -11848,7 +11848,7 @@
         <v>amtspentperdish87103</v>
       </c>
       <c r="I72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J72">
         <f t="shared" si="10"/>
@@ -11859,7 +11859,7 @@
         <v>gen double hdis_87  =  (amtspentperdish87101-amtspentperdish87103)^2</v>
       </c>
       <c r="L72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="12"/>
@@ -11895,7 +11895,7 @@
         <v>amtspentperdish88103</v>
       </c>
       <c r="I73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J73">
         <f t="shared" si="10"/>
@@ -11906,7 +11906,7 @@
         <v>gen double hdis_88  =  (amtspentperdish88101-amtspentperdish88103)^2</v>
       </c>
       <c r="L73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="12"/>
@@ -11942,7 +11942,7 @@
         <v>amtspentperdish89103</v>
       </c>
       <c r="I74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J74">
         <f t="shared" si="10"/>
@@ -11953,7 +11953,7 @@
         <v>gen double hdis_89  =  (amtspentperdish89101-amtspentperdish89103)^2</v>
       </c>
       <c r="L74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="12"/>
@@ -11989,7 +11989,7 @@
         <v>amtspentperdish90103</v>
       </c>
       <c r="I75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J75">
         <f t="shared" si="10"/>
@@ -12000,7 +12000,7 @@
         <v>gen double hdis_90  =  (amtspentperdish90101-amtspentperdish90103)^2</v>
       </c>
       <c r="L75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="12"/>
@@ -12036,7 +12036,7 @@
         <v>amtspentperdish91103</v>
       </c>
       <c r="I76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J76">
         <f t="shared" si="10"/>
@@ -12047,7 +12047,7 @@
         <v>gen double hdis_91  =  (amtspentperdish91101-amtspentperdish91103)^2</v>
       </c>
       <c r="L76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="12"/>
@@ -12083,7 +12083,7 @@
         <v>amtspentperdish92103</v>
       </c>
       <c r="I77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J77">
         <f t="shared" si="10"/>
@@ -12094,7 +12094,7 @@
         <v>gen double hdis_92  =  (amtspentperdish92101-amtspentperdish92103)^2</v>
       </c>
       <c r="L77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="12"/>
@@ -12130,7 +12130,7 @@
         <v>amtspentperdish93103</v>
       </c>
       <c r="I78" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J78">
         <f t="shared" si="10"/>
@@ -12141,7 +12141,7 @@
         <v>gen double hdis_93  =  (amtspentperdish93101-amtspentperdish93103)^2</v>
       </c>
       <c r="L78" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M78" t="str">
         <f t="shared" si="12"/>
@@ -12177,7 +12177,7 @@
         <v>amtspentperdish94103</v>
       </c>
       <c r="I79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J79">
         <f t="shared" si="10"/>
@@ -12188,7 +12188,7 @@
         <v>gen double hdis_94  =  (amtspentperdish94101-amtspentperdish94103)^2</v>
       </c>
       <c r="L79" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M79" t="str">
         <f t="shared" si="12"/>
@@ -12224,7 +12224,7 @@
         <v>amtspentperdish95103</v>
       </c>
       <c r="I80" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J80">
         <f t="shared" si="10"/>
@@ -12235,7 +12235,7 @@
         <v>gen double hdis_95  =  (amtspentperdish95101-amtspentperdish95103)^2</v>
       </c>
       <c r="L80" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M80" t="str">
         <f t="shared" si="12"/>
@@ -12271,7 +12271,7 @@
         <v>amtspentperdish96103</v>
       </c>
       <c r="I81" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J81">
         <f t="shared" si="10"/>
@@ -12282,7 +12282,7 @@
         <v>gen double hdis_96  =  (amtspentperdish96101-amtspentperdish96103)^2</v>
       </c>
       <c r="L81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M81" t="str">
         <f t="shared" si="12"/>
@@ -12318,7 +12318,7 @@
         <v>amtspentperdish97103</v>
       </c>
       <c r="I82" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J82">
         <f t="shared" si="10"/>
@@ -12329,7 +12329,7 @@
         <v>gen double hdis_97  =  (amtspentperdish97101-amtspentperdish97103)^2</v>
       </c>
       <c r="L82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M82" t="str">
         <f t="shared" si="12"/>
@@ -12365,7 +12365,7 @@
         <v>amtspentperdish99103</v>
       </c>
       <c r="I83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J83">
         <f t="shared" si="10"/>
@@ -12376,7 +12376,7 @@
         <v>gen double hdis_99  =  (amtspentperdish99101-amtspentperdish99103)^2</v>
       </c>
       <c r="L83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M83" t="str">
         <f t="shared" si="12"/>
@@ -12412,7 +12412,7 @@
         <v>amtspentperdish101103</v>
       </c>
       <c r="I84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J84">
         <f t="shared" si="10"/>
@@ -12423,7 +12423,7 @@
         <v>gen double hdis_101  =  (amtspentperdish101101-amtspentperdish101103)^2</v>
       </c>
       <c r="L84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M84" t="str">
         <f t="shared" si="12"/>
@@ -12459,7 +12459,7 @@
         <v>amtspentperdish102103</v>
       </c>
       <c r="I85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J85">
         <f t="shared" si="10"/>
@@ -12470,7 +12470,7 @@
         <v>gen double hdis_102  =  (amtspentperdish102101-amtspentperdish102103)^2</v>
       </c>
       <c r="L85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M85" t="str">
         <f t="shared" si="12"/>
@@ -12506,7 +12506,7 @@
         <v>amtspentperdish103103</v>
       </c>
       <c r="I86" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J86">
         <f t="shared" si="10"/>
@@ -12517,7 +12517,7 @@
         <v>gen double hdis_103  =  (amtspentperdish103101-amtspentperdish103103)^2</v>
       </c>
       <c r="L86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M86" t="str">
         <f t="shared" si="12"/>
@@ -12553,7 +12553,7 @@
         <v>amtspentperdish104103</v>
       </c>
       <c r="I87" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J87">
         <f t="shared" si="10"/>
@@ -12564,7 +12564,7 @@
         <v>gen double hdis_104  =  (amtspentperdish104101-amtspentperdish104103)^2</v>
       </c>
       <c r="L87" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M87" t="str">
         <f t="shared" si="12"/>
@@ -12600,7 +12600,7 @@
         <v>amtspentperdish105103</v>
       </c>
       <c r="I88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J88">
         <f t="shared" si="10"/>
@@ -12611,7 +12611,7 @@
         <v>gen double hdis_105  =  (amtspentperdish105101-amtspentperdish105103)^2</v>
       </c>
       <c r="L88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M88" t="str">
         <f t="shared" si="12"/>
@@ -12647,7 +12647,7 @@
         <v>amtspentperdish106103</v>
       </c>
       <c r="I89" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J89">
         <f t="shared" si="10"/>
@@ -12658,7 +12658,7 @@
         <v>gen double hdis_106  =  (amtspentperdish106101-amtspentperdish106103)^2</v>
       </c>
       <c r="L89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M89" t="str">
         <f t="shared" si="12"/>
@@ -12694,7 +12694,7 @@
         <v>amtspentperdish107103</v>
       </c>
       <c r="I90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J90">
         <f t="shared" si="10"/>
@@ -12705,7 +12705,7 @@
         <v>gen double hdis_107  =  (amtspentperdish107101-amtspentperdish107103)^2</v>
       </c>
       <c r="L90" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M90" t="str">
         <f t="shared" si="12"/>
@@ -12741,7 +12741,7 @@
         <v>amtspentperdish108103</v>
       </c>
       <c r="I91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J91">
         <f t="shared" si="10"/>
@@ -12752,7 +12752,7 @@
         <v>gen double hdis_108  =  (amtspentperdish108101-amtspentperdish108103)^2</v>
       </c>
       <c r="L91" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M91" t="str">
         <f t="shared" si="12"/>
@@ -12788,7 +12788,7 @@
         <v>amtspentperdish110103</v>
       </c>
       <c r="I92" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J92">
         <f t="shared" si="10"/>
@@ -12799,7 +12799,7 @@
         <v>gen double hdis_110  =  (amtspentperdish110101-amtspentperdish110103)^2</v>
       </c>
       <c r="L92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M92" t="str">
         <f t="shared" si="12"/>
@@ -12835,7 +12835,7 @@
         <v>amtspentperdish111103</v>
       </c>
       <c r="I93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J93">
         <f t="shared" si="10"/>
@@ -12846,7 +12846,7 @@
         <v>gen double hdis_111  =  (amtspentperdish111101-amtspentperdish111103)^2</v>
       </c>
       <c r="L93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M93" t="str">
         <f t="shared" si="12"/>
@@ -12882,7 +12882,7 @@
         <v>amtspentperdish112103</v>
       </c>
       <c r="I94" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J94">
         <f t="shared" si="10"/>
@@ -12893,7 +12893,7 @@
         <v>gen double hdis_112  =  (amtspentperdish112101-amtspentperdish112103)^2</v>
       </c>
       <c r="L94" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M94" t="str">
         <f t="shared" si="12"/>
@@ -12929,7 +12929,7 @@
         <v>amtspentperdish113103</v>
       </c>
       <c r="I95" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J95">
         <f t="shared" si="10"/>
@@ -12940,7 +12940,7 @@
         <v>gen double hdis_113  =  (amtspentperdish113101-amtspentperdish113103)^2</v>
       </c>
       <c r="L95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M95" t="str">
         <f t="shared" si="12"/>
@@ -12976,7 +12976,7 @@
         <v>amtspentperdish114103</v>
       </c>
       <c r="I96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J96">
         <f t="shared" si="10"/>
@@ -12987,7 +12987,7 @@
         <v>gen double hdis_114  =  (amtspentperdish114101-amtspentperdish114103)^2</v>
       </c>
       <c r="L96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M96" t="str">
         <f t="shared" si="12"/>
@@ -13023,7 +13023,7 @@
         <v>amtspentperdish115103</v>
       </c>
       <c r="I97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J97">
         <f t="shared" si="10"/>
@@ -13034,7 +13034,7 @@
         <v>gen double hdis_115  =  (amtspentperdish115101-amtspentperdish115103)^2</v>
       </c>
       <c r="L97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M97" t="str">
         <f t="shared" si="12"/>
@@ -13070,7 +13070,7 @@
         <v>amtspentperdish116103</v>
       </c>
       <c r="I98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J98">
         <f t="shared" si="10"/>
@@ -13081,7 +13081,7 @@
         <v>gen double hdis_116  =  (amtspentperdish116101-amtspentperdish116103)^2</v>
       </c>
       <c r="L98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M98" t="str">
         <f t="shared" si="12"/>
@@ -13117,7 +13117,7 @@
         <v>amtspentperdish117103</v>
       </c>
       <c r="I99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J99">
         <f t="shared" si="10"/>
@@ -13128,7 +13128,7 @@
         <v>gen double hdis_117  =  (amtspentperdish117101-amtspentperdish117103)^2</v>
       </c>
       <c r="L99" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M99" t="str">
         <f t="shared" si="12"/>
@@ -13164,7 +13164,7 @@
         <v>amtspentperdish118103</v>
       </c>
       <c r="I100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J100">
         <f t="shared" si="10"/>
@@ -13175,7 +13175,7 @@
         <v>gen double hdis_118  =  (amtspentperdish118101-amtspentperdish118103)^2</v>
       </c>
       <c r="L100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M100" t="str">
         <f t="shared" si="12"/>
@@ -13211,7 +13211,7 @@
         <v>amtspentperdish119103</v>
       </c>
       <c r="I101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J101">
         <f t="shared" si="10"/>
@@ -13222,7 +13222,7 @@
         <v>gen double hdis_119  =  (amtspentperdish119101-amtspentperdish119103)^2</v>
       </c>
       <c r="L101" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M101" t="str">
         <f t="shared" si="12"/>
@@ -13258,7 +13258,7 @@
         <v>amtspentperdish120103</v>
       </c>
       <c r="I102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J102">
         <f t="shared" si="10"/>
@@ -13269,7 +13269,7 @@
         <v>gen double hdis_120  =  (amtspentperdish120101-amtspentperdish120103)^2</v>
       </c>
       <c r="L102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M102" t="str">
         <f t="shared" si="12"/>
@@ -13305,7 +13305,7 @@
         <v>amtspentperdish121103</v>
       </c>
       <c r="I103" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J103">
         <f t="shared" si="10"/>
@@ -13316,7 +13316,7 @@
         <v>gen double hdis_121  =  (amtspentperdish121101-amtspentperdish121103)^2</v>
       </c>
       <c r="L103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M103" t="str">
         <f t="shared" si="12"/>
@@ -13352,7 +13352,7 @@
         <v>amtspentperdish122103</v>
       </c>
       <c r="I104" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J104">
         <f t="shared" si="10"/>
@@ -13363,7 +13363,7 @@
         <v>gen double hdis_122  =  (amtspentperdish122101-amtspentperdish122103)^2</v>
       </c>
       <c r="L104" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M104" t="str">
         <f t="shared" si="12"/>
@@ -13399,7 +13399,7 @@
         <v>amtspentperdish123103</v>
       </c>
       <c r="I105" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J105">
         <f t="shared" si="10"/>
@@ -13410,7 +13410,7 @@
         <v>gen double hdis_123  =  (amtspentperdish123101-amtspentperdish123103)^2</v>
       </c>
       <c r="L105" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M105" t="str">
         <f t="shared" si="12"/>
@@ -13446,7 +13446,7 @@
         <v>amtspentperdish124103</v>
       </c>
       <c r="I106" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J106">
         <f t="shared" si="10"/>
@@ -13457,7 +13457,7 @@
         <v>gen double hdis_124  =  (amtspentperdish124101-amtspentperdish124103)^2</v>
       </c>
       <c r="L106" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M106" t="str">
         <f t="shared" si="12"/>
@@ -13493,7 +13493,7 @@
         <v>amtspentperdish125103</v>
       </c>
       <c r="I107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J107">
         <f t="shared" si="10"/>
@@ -13504,7 +13504,7 @@
         <v>gen double hdis_125  =  (amtspentperdish125101-amtspentperdish125103)^2</v>
       </c>
       <c r="L107" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M107" t="str">
         <f t="shared" si="12"/>
@@ -13540,7 +13540,7 @@
         <v>amtspentperdish126103</v>
       </c>
       <c r="I108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J108">
         <f t="shared" si="10"/>
@@ -13551,7 +13551,7 @@
         <v>gen double hdis_126  =  (amtspentperdish126101-amtspentperdish126103)^2</v>
       </c>
       <c r="L108" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M108" t="str">
         <f t="shared" si="12"/>
@@ -13587,7 +13587,7 @@
         <v>amtspentperdish129103</v>
       </c>
       <c r="I109" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J109">
         <f t="shared" si="10"/>
@@ -13598,7 +13598,7 @@
         <v>gen double hdis_129  =  (amtspentperdish129101-amtspentperdish129103)^2</v>
       </c>
       <c r="L109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M109" t="str">
         <f t="shared" si="12"/>
@@ -13634,7 +13634,7 @@
         <v>amtspentperdish130103</v>
       </c>
       <c r="I110" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J110">
         <f t="shared" si="10"/>
@@ -13645,7 +13645,7 @@
         <v>gen double hdis_130  =  (amtspentperdish130101-amtspentperdish130103)^2</v>
       </c>
       <c r="L110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M110" t="str">
         <f t="shared" si="12"/>
@@ -13681,7 +13681,7 @@
         <v>amtspentperdish131103</v>
       </c>
       <c r="I111" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J111">
         <f t="shared" si="10"/>
@@ -13692,7 +13692,7 @@
         <v>gen double hdis_131  =  (amtspentperdish131101-amtspentperdish131103)^2</v>
       </c>
       <c r="L111" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M111" t="str">
         <f t="shared" si="12"/>
@@ -13728,7 +13728,7 @@
         <v>amtspentperdish132103</v>
       </c>
       <c r="I112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J112">
         <f t="shared" si="10"/>
@@ -13739,7 +13739,7 @@
         <v>gen double hdis_132  =  (amtspentperdish132101-amtspentperdish132103)^2</v>
       </c>
       <c r="L112" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M112" t="str">
         <f t="shared" si="12"/>
@@ -13775,7 +13775,7 @@
         <v>amtspentperdish133103</v>
       </c>
       <c r="I113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J113">
         <f t="shared" si="10"/>
@@ -13786,7 +13786,7 @@
         <v>gen double hdis_133  =  (amtspentperdish133101-amtspentperdish133103)^2</v>
       </c>
       <c r="L113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M113" t="str">
         <f t="shared" si="12"/>
@@ -13822,7 +13822,7 @@
         <v>amtspentperdish134103</v>
       </c>
       <c r="I114" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J114">
         <f t="shared" si="10"/>
@@ -13833,7 +13833,7 @@
         <v>gen double hdis_134  =  (amtspentperdish134101-amtspentperdish134103)^2</v>
       </c>
       <c r="L114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M114" t="str">
         <f t="shared" si="12"/>
@@ -13869,7 +13869,7 @@
         <v>amtspentperdish135103</v>
       </c>
       <c r="I115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J115">
         <f t="shared" si="10"/>
@@ -13880,7 +13880,7 @@
         <v>gen double hdis_135  =  (amtspentperdish135101-amtspentperdish135103)^2</v>
       </c>
       <c r="L115" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M115" t="str">
         <f t="shared" si="12"/>
@@ -13916,7 +13916,7 @@
         <v>amtspentperdish136103</v>
       </c>
       <c r="I116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J116">
         <f t="shared" si="10"/>
@@ -13927,7 +13927,7 @@
         <v>gen double hdis_136  =  (amtspentperdish136101-amtspentperdish136103)^2</v>
       </c>
       <c r="L116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M116" t="str">
         <f t="shared" si="12"/>
@@ -13963,7 +13963,7 @@
         <v>amtspentperdish138103</v>
       </c>
       <c r="I117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J117">
         <f t="shared" si="10"/>
@@ -13974,7 +13974,7 @@
         <v>gen double hdis_138  =  (amtspentperdish138101-amtspentperdish138103)^2</v>
       </c>
       <c r="L117" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M117" t="str">
         <f t="shared" si="12"/>
@@ -14010,7 +14010,7 @@
         <v>amtspentperdish139103</v>
       </c>
       <c r="I118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J118">
         <f t="shared" si="10"/>
@@ -14021,7 +14021,7 @@
         <v>gen double hdis_139  =  (amtspentperdish139101-amtspentperdish139103)^2</v>
       </c>
       <c r="L118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M118" t="str">
         <f t="shared" si="12"/>
@@ -14057,7 +14057,7 @@
         <v>amtspentperdish140103</v>
       </c>
       <c r="I119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J119">
         <f t="shared" si="10"/>
@@ -14068,7 +14068,7 @@
         <v>gen double hdis_140  =  (amtspentperdish140101-amtspentperdish140103)^2</v>
       </c>
       <c r="L119" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M119" t="str">
         <f t="shared" si="12"/>
@@ -14104,7 +14104,7 @@
         <v>amtspentperdish141103</v>
       </c>
       <c r="I120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J120">
         <f t="shared" si="10"/>
@@ -14115,7 +14115,7 @@
         <v>gen double hdis_141  =  (amtspentperdish141101-amtspentperdish141103)^2</v>
       </c>
       <c r="L120" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M120" t="str">
         <f t="shared" si="12"/>
@@ -14151,7 +14151,7 @@
         <v>amtspentperdish142103</v>
       </c>
       <c r="I121" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J121">
         <f t="shared" si="10"/>
@@ -14162,7 +14162,7 @@
         <v>gen double hdis_142  =  (amtspentperdish142101-amtspentperdish142103)^2</v>
       </c>
       <c r="L121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M121" t="str">
         <f t="shared" si="12"/>
@@ -14198,7 +14198,7 @@
         <v>amtspentperdish144103</v>
       </c>
       <c r="I122" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J122">
         <f t="shared" si="10"/>
@@ -14209,7 +14209,7 @@
         <v>gen double hdis_144  =  (amtspentperdish144101-amtspentperdish144103)^2</v>
       </c>
       <c r="L122" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M122" t="str">
         <f t="shared" si="12"/>
@@ -14245,7 +14245,7 @@
         <v>amtspentperdish145103</v>
       </c>
       <c r="I123" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J123">
         <f t="shared" si="10"/>
@@ -14256,7 +14256,7 @@
         <v>gen double hdis_145  =  (amtspentperdish145101-amtspentperdish145103)^2</v>
       </c>
       <c r="L123" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M123" t="str">
         <f t="shared" si="12"/>
@@ -14292,7 +14292,7 @@
         <v>amtspentperdish146103</v>
       </c>
       <c r="I124" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J124">
         <f t="shared" si="10"/>
@@ -14303,7 +14303,7 @@
         <v>gen double hdis_146  =  (amtspentperdish146101-amtspentperdish146103)^2</v>
       </c>
       <c r="L124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M124" t="str">
         <f t="shared" si="12"/>
@@ -14339,7 +14339,7 @@
         <v>amtspentperdish147103</v>
       </c>
       <c r="I125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J125">
         <f t="shared" si="10"/>
@@ -14350,7 +14350,7 @@
         <v>gen double hdis_147  =  (amtspentperdish147101-amtspentperdish147103)^2</v>
       </c>
       <c r="L125" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M125" t="str">
         <f t="shared" si="12"/>
@@ -14386,7 +14386,7 @@
         <v>amtspentperdish148103</v>
       </c>
       <c r="I126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J126">
         <f t="shared" si="10"/>
@@ -14397,7 +14397,7 @@
         <v>gen double hdis_148  =  (amtspentperdish148101-amtspentperdish148103)^2</v>
       </c>
       <c r="L126" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M126" t="str">
         <f t="shared" si="12"/>
@@ -14433,7 +14433,7 @@
         <v>amtspentperdish151103</v>
       </c>
       <c r="I127" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J127">
         <f t="shared" si="10"/>
@@ -14444,7 +14444,7 @@
         <v>gen double hdis_151  =  (amtspentperdish151101-amtspentperdish151103)^2</v>
       </c>
       <c r="L127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M127" t="str">
         <f t="shared" si="12"/>
@@ -14480,7 +14480,7 @@
         <v>amtspentperdish153103</v>
       </c>
       <c r="I128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J128">
         <f t="shared" si="10"/>
@@ -14491,7 +14491,7 @@
         <v>gen double hdis_153  =  (amtspentperdish153101-amtspentperdish153103)^2</v>
       </c>
       <c r="L128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M128" t="str">
         <f t="shared" si="12"/>
@@ -14527,7 +14527,7 @@
         <v>amtspentperdish154103</v>
       </c>
       <c r="I129" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J129">
         <f t="shared" si="10"/>
@@ -14538,7 +14538,7 @@
         <v>gen double hdis_154  =  (amtspentperdish154101-amtspentperdish154103)^2</v>
       </c>
       <c r="L129" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M129" t="str">
         <f t="shared" si="12"/>
@@ -14574,7 +14574,7 @@
         <v>amtspentperdish157103</v>
       </c>
       <c r="I130" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J130">
         <f t="shared" si="10"/>
@@ -14585,7 +14585,7 @@
         <v>gen double hdis_157  =  (amtspentperdish157101-amtspentperdish157103)^2</v>
       </c>
       <c r="L130" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M130" t="str">
         <f t="shared" si="12"/>
@@ -14621,7 +14621,7 @@
         <v>amtspentperdish158103</v>
       </c>
       <c r="I131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J131">
         <f t="shared" ref="J131" si="16">B131</f>
@@ -14632,7 +14632,7 @@
         <v>gen double hdis_158  =  (amtspentperdish158101-amtspentperdish158103)^2</v>
       </c>
       <c r="L131" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M131" t="str">
         <f t="shared" ref="M131" si="18">CONCATENATE(L131,$J131,"  =  (",G131,"-",$H131,")^2")</f>
@@ -14665,13 +14665,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
@@ -14683,7 +14683,7 @@
       <c r="B2" s="34"/>
       <c r="C2" s="33"/>
       <c r="D2" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
@@ -14691,31 +14691,31 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>311</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="28">
@@ -14733,10 +14733,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="28">
@@ -14754,10 +14754,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="28">
@@ -14775,10 +14775,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="28">
@@ -14796,10 +14796,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="28">
@@ -14817,10 +14817,10 @@
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="28">
@@ -14847,13 +14847,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D11" s="28">
         <v>0.14689269999999999</v>
@@ -14870,13 +14870,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" s="28">
         <v>0.45762710000000001</v>
@@ -14893,13 +14893,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D13" s="28">
         <v>0.42372880000000002</v>
@@ -14916,13 +14916,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D14" s="28">
         <v>0.75141239999999998</v>
@@ -14939,13 +14939,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="28">
         <v>0.50282490000000002</v>
@@ -14962,13 +14962,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D16" s="28">
         <v>0.2542373</v>
@@ -14985,13 +14985,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D17" s="28">
         <v>4.7129900000000002E-2</v>
@@ -15008,13 +15008,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D18" s="28">
         <v>1.0653060000000001</v>
@@ -15031,10 +15031,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="28">
@@ -15052,10 +15052,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="28">
@@ -15073,13 +15073,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D21" s="28">
         <v>0.54802260000000003</v>
@@ -15096,13 +15096,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D22" s="28">
         <v>0.48587570000000002</v>
@@ -15119,13 +15119,13 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D23" s="28">
         <v>0.20903949999999999</v>
@@ -15142,13 +15142,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D24" s="28">
         <v>0.1073446</v>
@@ -15165,13 +15165,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D25" s="28">
         <v>0.70621469999999997</v>
@@ -15188,13 +15188,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D26" s="28">
         <v>0.47457630000000001</v>
@@ -15211,10 +15211,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="28">
@@ -15232,13 +15232,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D28" s="28">
         <v>0.18644069999999999</v>
@@ -15255,13 +15255,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D29" s="28">
         <v>0.44067800000000001</v>
@@ -15278,10 +15278,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="28">
@@ -15299,13 +15299,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D31" s="28">
         <v>0.2372881</v>
@@ -15322,13 +15322,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D32" s="23">
         <v>0.19209039999999999</v>
